--- a/DCIT 65 - IT 3B/DCIT 65 - IT 3B - Copy.xlsx
+++ b/DCIT 65 - IT 3B/DCIT 65 - IT 3B - Copy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\WORK\CvSU\2017-2018 Second Semester\Grading-Sheets-Second-Sem-2017-2018\DCIT 65 - IT 3B\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0545AC12-2D35-4C02-95CB-1EC6177ED379}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3BFD10E-C929-4FA5-B8A1-AC3AEB340FE6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="REGISTRATION" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
     <definedName name="courseAcro">'[1]GRADING SETTINGS'!$H$3:$H$10</definedName>
@@ -31,7 +32,7 @@
     <definedName name="finalExamLab">'RAW GRADES'!$BI$10</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Attendance Sheet - Lecture'!$A$1:$J$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">BACKPAGE!$A$1:$H$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'DEPT CHAIR'!$A$6:$P$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'DEPT CHAIR'!$A$1:$P$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'SEMESTRAL GRADE'!$A$1:$F$30</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="302">
   <si>
     <t>Subject:</t>
   </si>
@@ -452,9 +453,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>Noted :</t>
   </si>
   <si>
     <t>Recommending Approval :</t>
@@ -1001,6 +999,12 @@
   </si>
   <si>
     <t>2013-01-1179</t>
+  </si>
+  <si>
+    <t>Chairperson, DIT</t>
+  </si>
+  <si>
+    <t>AMMIE P. FERRER, Ph.D</t>
   </si>
 </sst>
 </file>
@@ -2211,7 +2215,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="348">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2679,6 +2683,110 @@
     <xf numFmtId="14" fontId="9" fillId="22" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="16" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="17" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3158,6 +3266,22 @@
       <alignment horizontal="left" vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3190,14 +3314,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3222,10 +3338,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection hidden="1"/>
@@ -3337,106 +3449,6 @@
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="16" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="17" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="16" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="17" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="16" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="10" fillId="17" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -4509,6 +4521,31 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="REGISTRATION"/>
+      <sheetName val="RAW GRADES"/>
+      <sheetName val="DEPT CHAIR"/>
+      <sheetName val="SEMESTRAL GRADE"/>
+      <sheetName val="BACKPAGE"/>
+      <sheetName val="Attendance Sheet"/>
+      <sheetName val="MISC"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -4799,85 +4836,85 @@
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" thickBot="1"/>
     <row r="2" spans="1:19">
-      <c r="A2" s="148" t="s">
+      <c r="A2" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="150"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="176"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A3" s="151"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
+      <c r="A3" s="177"/>
+      <c r="B3" s="178"/>
+      <c r="C3" s="178"/>
+      <c r="D3" s="178"/>
+      <c r="E3" s="178"/>
+      <c r="F3" s="178"/>
+      <c r="G3" s="178"/>
+      <c r="H3" s="178"/>
+      <c r="I3" s="178"/>
+      <c r="J3" s="178"/>
+      <c r="K3" s="178"/>
+      <c r="L3" s="178"/>
+      <c r="M3" s="178"/>
+      <c r="N3" s="179"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A4" s="142"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="142"/>
-      <c r="D4" s="142"/>
-      <c r="E4" s="142"/>
-      <c r="F4" s="142"/>
-      <c r="G4" s="142"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="142"/>
-      <c r="J4" s="142"/>
-      <c r="K4" s="142"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="142"/>
-      <c r="N4" s="142"/>
+      <c r="A4" s="168"/>
+      <c r="B4" s="168"/>
+      <c r="C4" s="168"/>
+      <c r="D4" s="168"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="168"/>
+      <c r="L4" s="168"/>
+      <c r="M4" s="168"/>
+      <c r="N4" s="168"/>
     </row>
     <row r="5" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A5" s="141"/>
-      <c r="B5" s="141"/>
-      <c r="C5" s="141"/>
-      <c r="D5" s="141"/>
-      <c r="E5" s="141"/>
-      <c r="F5" s="141"/>
-      <c r="G5" s="141"/>
-      <c r="H5" s="141"/>
-      <c r="I5" s="141"/>
-      <c r="J5" s="141"/>
-      <c r="K5" s="141"/>
-      <c r="L5" s="141"/>
-      <c r="M5" s="141"/>
-      <c r="N5" s="141"/>
+      <c r="A5" s="167"/>
+      <c r="B5" s="167"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="169"/>
-      <c r="C6" s="170" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="171" t="s">
+      <c r="A6" s="194" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="195"/>
+      <c r="C6" s="196" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="196"/>
+      <c r="E6" s="196"/>
+      <c r="F6" s="197" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="171"/>
+      <c r="G6" s="197"/>
       <c r="H6" s="1">
         <v>1</v>
       </c>
@@ -4885,35 +4922,35 @@
         <v>2</v>
       </c>
       <c r="J6" s="121" t="s">
-        <v>194</v>
-      </c>
-      <c r="K6" s="172" t="s">
+        <v>193</v>
+      </c>
+      <c r="K6" s="198" t="s">
         <v>3</v>
       </c>
-      <c r="L6" s="172"/>
-      <c r="M6" s="173" t="s">
-        <v>194</v>
-      </c>
-      <c r="N6" s="173"/>
+      <c r="L6" s="198"/>
+      <c r="M6" s="199" t="s">
+        <v>193</v>
+      </c>
+      <c r="N6" s="199"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="174" t="s">
+      <c r="A7" s="200" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="175"/>
+      <c r="B7" s="201"/>
       <c r="C7" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="176" t="s">
+      <c r="F7" s="202" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="176"/>
+      <c r="G7" s="202"/>
       <c r="H7" s="5">
         <v>2</v>
       </c>
@@ -4921,35 +4958,35 @@
         <v>6</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K7" s="202" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="202"/>
+      <c r="M7" s="203" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="176" t="s">
-        <v>7</v>
-      </c>
-      <c r="L7" s="176"/>
-      <c r="M7" s="177" t="s">
-        <v>196</v>
-      </c>
-      <c r="N7" s="177"/>
+      <c r="N7" s="203"/>
     </row>
     <row r="8" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A8" s="178" t="s">
+      <c r="A8" s="204" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="179"/>
+      <c r="B8" s="205"/>
       <c r="C8" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D8" s="9">
         <v>3</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F8" s="180" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="206" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="180"/>
+      <c r="G8" s="206"/>
       <c r="H8" s="10">
         <f>SUM(H6:H7)</f>
         <v>3</v>
@@ -4960,416 +4997,416 @@
       <c r="J8" s="98">
         <v>353</v>
       </c>
-      <c r="K8" s="180" t="s">
+      <c r="K8" s="206" t="s">
         <v>11</v>
       </c>
-      <c r="L8" s="180"/>
-      <c r="M8" s="181" t="s">
-        <v>186</v>
-      </c>
-      <c r="N8" s="181"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="207" t="s">
+        <v>185</v>
+      </c>
+      <c r="N8" s="207"/>
     </row>
     <row r="9" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A9" s="182" t="s">
+      <c r="A9" s="208" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="183" t="s">
+      <c r="B9" s="209" t="s">
         <v>83</v>
       </c>
-      <c r="C9" s="185" t="s">
+      <c r="C9" s="211" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="185"/>
-      <c r="E9" s="185"/>
-      <c r="F9" s="185"/>
-      <c r="G9" s="186" t="s">
+      <c r="D9" s="211"/>
+      <c r="E9" s="211"/>
+      <c r="F9" s="211"/>
+      <c r="G9" s="212" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="186" t="s">
+      <c r="H9" s="212" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="187"/>
-      <c r="J9" s="187"/>
-      <c r="K9" s="159" t="s">
+      <c r="I9" s="213"/>
+      <c r="J9" s="213"/>
+      <c r="K9" s="185" t="s">
         <v>16</v>
       </c>
-      <c r="L9" s="160"/>
-      <c r="M9" s="159" t="s">
+      <c r="L9" s="186"/>
+      <c r="M9" s="185" t="s">
         <v>17</v>
       </c>
-      <c r="N9" s="160"/>
+      <c r="N9" s="186"/>
     </row>
     <row r="10" spans="1:19" ht="15.75" thickBot="1">
-      <c r="A10" s="182"/>
-      <c r="B10" s="184"/>
+      <c r="A10" s="208"/>
+      <c r="B10" s="210"/>
       <c r="C10" s="97" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="137" t="s">
+      <c r="D10" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="138"/>
+      <c r="E10" s="164"/>
       <c r="F10" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="187"/>
-      <c r="J10" s="187"/>
-      <c r="K10" s="160"/>
-      <c r="L10" s="160"/>
-      <c r="M10" s="160"/>
-      <c r="N10" s="160"/>
+      <c r="G10" s="213"/>
+      <c r="H10" s="213"/>
+      <c r="I10" s="213"/>
+      <c r="J10" s="213"/>
+      <c r="K10" s="186"/>
+      <c r="L10" s="186"/>
+      <c r="M10" s="186"/>
+      <c r="N10" s="186"/>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="12">
         <v>1</v>
       </c>
       <c r="B11" s="122" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="122" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="122" t="s">
+      <c r="D11" s="123" t="s">
         <v>199</v>
-      </c>
-      <c r="D11" s="123" t="s">
-        <v>200</v>
       </c>
       <c r="E11" s="124"/>
       <c r="F11" s="125" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G11" s="14"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="163"/>
-      <c r="K11" s="164"/>
-      <c r="L11" s="165"/>
-      <c r="M11" s="161"/>
-      <c r="N11" s="163"/>
-      <c r="P11" s="154" t="s">
+      <c r="H11" s="187"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="190"/>
+      <c r="L11" s="191"/>
+      <c r="M11" s="187"/>
+      <c r="N11" s="189"/>
+      <c r="P11" s="180" t="s">
         <v>22</v>
       </c>
-      <c r="Q11" s="155"/>
-      <c r="R11" s="155"/>
-      <c r="S11" s="156"/>
+      <c r="Q11" s="181"/>
+      <c r="R11" s="181"/>
+      <c r="S11" s="182"/>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="12">
         <v>2</v>
       </c>
       <c r="B12" s="126" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="127" t="s">
         <v>202</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="D12" s="128" t="s">
         <v>203</v>
-      </c>
-      <c r="D12" s="128" t="s">
-        <v>204</v>
       </c>
       <c r="E12" s="129"/>
       <c r="F12" s="130" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G12" s="14"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="145"/>
-      <c r="K12" s="146"/>
-      <c r="L12" s="146"/>
-      <c r="M12" s="147"/>
-      <c r="N12" s="147"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="171"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="173"/>
+      <c r="N12" s="173"/>
       <c r="P12" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="Q12" s="143" t="s">
-        <v>187</v>
-      </c>
-      <c r="R12" s="143"/>
-      <c r="S12" s="144"/>
+      <c r="Q12" s="169" t="s">
+        <v>186</v>
+      </c>
+      <c r="R12" s="169"/>
+      <c r="S12" s="170"/>
     </row>
     <row r="13" spans="1:19">
       <c r="A13" s="12">
         <v>3</v>
       </c>
       <c r="B13" s="131" t="s">
+        <v>205</v>
+      </c>
+      <c r="C13" s="131" t="s">
         <v>206</v>
       </c>
-      <c r="C13" s="131" t="s">
+      <c r="D13" s="128" t="s">
         <v>207</v>
-      </c>
-      <c r="D13" s="128" t="s">
-        <v>208</v>
       </c>
       <c r="E13" s="129"/>
       <c r="F13" s="132" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="145"/>
-      <c r="K13" s="146"/>
-      <c r="L13" s="146"/>
-      <c r="M13" s="147"/>
-      <c r="N13" s="147"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="171"/>
+      <c r="J13" s="171"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="173"/>
+      <c r="N13" s="173"/>
       <c r="P13" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="Q13" s="143" t="s">
-        <v>188</v>
-      </c>
-      <c r="R13" s="143"/>
-      <c r="S13" s="144"/>
+      <c r="Q13" s="169" t="s">
+        <v>187</v>
+      </c>
+      <c r="R13" s="169"/>
+      <c r="S13" s="170"/>
     </row>
     <row r="14" spans="1:19">
       <c r="A14" s="12">
         <v>4</v>
       </c>
       <c r="B14" s="126" t="s">
+        <v>209</v>
+      </c>
+      <c r="C14" s="126" t="s">
         <v>210</v>
       </c>
-      <c r="C14" s="126" t="s">
+      <c r="D14" s="128" t="s">
         <v>211</v>
-      </c>
-      <c r="D14" s="128" t="s">
-        <v>212</v>
       </c>
       <c r="E14" s="129"/>
       <c r="F14" s="130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G14" s="14"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="145"/>
-      <c r="K14" s="146"/>
-      <c r="L14" s="146"/>
-      <c r="M14" s="147"/>
-      <c r="N14" s="147"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="171"/>
+      <c r="J14" s="171"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="173"/>
+      <c r="N14" s="173"/>
       <c r="P14" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="Q14" s="143" t="s">
-        <v>189</v>
-      </c>
-      <c r="R14" s="143"/>
-      <c r="S14" s="144"/>
+      <c r="Q14" s="169" t="s">
+        <v>188</v>
+      </c>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
     </row>
     <row r="15" spans="1:19">
       <c r="A15" s="12">
         <v>5</v>
       </c>
       <c r="B15" s="126" t="s">
+        <v>213</v>
+      </c>
+      <c r="C15" s="126" t="s">
         <v>214</v>
       </c>
-      <c r="C15" s="126" t="s">
+      <c r="D15" s="128" t="s">
         <v>215</v>
-      </c>
-      <c r="D15" s="128" t="s">
-        <v>216</v>
       </c>
       <c r="E15" s="129"/>
       <c r="F15" s="130" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="14"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="145"/>
-      <c r="K15" s="146"/>
-      <c r="L15" s="146"/>
-      <c r="M15" s="147"/>
-      <c r="N15" s="147"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="171"/>
+      <c r="J15" s="171"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="173"/>
+      <c r="N15" s="173"/>
       <c r="P15" s="95" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q15" s="143" t="s">
-        <v>190</v>
-      </c>
-      <c r="R15" s="143"/>
-      <c r="S15" s="144"/>
+        <v>174</v>
+      </c>
+      <c r="Q15" s="169" t="s">
+        <v>189</v>
+      </c>
+      <c r="R15" s="169"/>
+      <c r="S15" s="170"/>
     </row>
     <row r="16" spans="1:19">
       <c r="A16" s="12">
         <v>6</v>
       </c>
       <c r="B16" s="126" t="s">
+        <v>216</v>
+      </c>
+      <c r="C16" s="126" t="s">
         <v>217</v>
       </c>
-      <c r="C16" s="126" t="s">
+      <c r="D16" s="128" t="s">
         <v>218</v>
-      </c>
-      <c r="D16" s="128" t="s">
-        <v>219</v>
       </c>
       <c r="E16" s="129"/>
       <c r="F16" s="130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="14"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="145"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="147"/>
-      <c r="N16" s="147"/>
+      <c r="H16" s="171"/>
+      <c r="I16" s="171"/>
+      <c r="J16" s="171"/>
+      <c r="K16" s="172"/>
+      <c r="L16" s="172"/>
+      <c r="M16" s="173"/>
+      <c r="N16" s="173"/>
       <c r="P16" s="95" t="s">
         <v>26</v>
       </c>
-      <c r="Q16" s="157" t="s">
-        <v>191</v>
-      </c>
-      <c r="R16" s="157"/>
-      <c r="S16" s="158"/>
+      <c r="Q16" s="183" t="s">
+        <v>190</v>
+      </c>
+      <c r="R16" s="183"/>
+      <c r="S16" s="184"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="12">
         <v>7</v>
       </c>
       <c r="B17" s="126" t="s">
+        <v>220</v>
+      </c>
+      <c r="C17" s="126" t="s">
         <v>221</v>
       </c>
-      <c r="C17" s="126" t="s">
+      <c r="D17" s="128" t="s">
         <v>222</v>
-      </c>
-      <c r="D17" s="128" t="s">
-        <v>223</v>
       </c>
       <c r="E17" s="129"/>
       <c r="F17" s="130" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G17" s="14"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="145"/>
-      <c r="K17" s="146"/>
-      <c r="L17" s="146"/>
-      <c r="M17" s="147"/>
-      <c r="N17" s="147"/>
+      <c r="H17" s="171"/>
+      <c r="I17" s="171"/>
+      <c r="J17" s="171"/>
+      <c r="K17" s="172"/>
+      <c r="L17" s="172"/>
+      <c r="M17" s="173"/>
+      <c r="N17" s="173"/>
       <c r="P17" s="95" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q17" s="143" t="s">
-        <v>192</v>
-      </c>
-      <c r="R17" s="143"/>
-      <c r="S17" s="144"/>
+        <v>158</v>
+      </c>
+      <c r="Q17" s="169" t="s">
+        <v>191</v>
+      </c>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" thickBot="1">
       <c r="A18" s="12">
         <v>8</v>
       </c>
       <c r="B18" s="126" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="126" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="126" t="s">
+      <c r="D18" s="128" t="s">
         <v>226</v>
-      </c>
-      <c r="D18" s="128" t="s">
-        <v>227</v>
       </c>
       <c r="E18" s="129"/>
       <c r="F18" s="130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G18" s="14"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="145"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="147"/>
-      <c r="N18" s="147"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="171"/>
+      <c r="J18" s="171"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="173"/>
+      <c r="N18" s="173"/>
       <c r="P18" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q18" s="166" t="s">
-        <v>193</v>
-      </c>
-      <c r="R18" s="166"/>
-      <c r="S18" s="167"/>
+        <v>132</v>
+      </c>
+      <c r="Q18" s="192" t="s">
+        <v>192</v>
+      </c>
+      <c r="R18" s="192"/>
+      <c r="S18" s="193"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="12">
         <v>9</v>
       </c>
       <c r="B19" s="133" t="s">
+        <v>228</v>
+      </c>
+      <c r="C19" s="133" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="133" t="s">
+      <c r="D19" s="134" t="s">
         <v>230</v>
-      </c>
-      <c r="D19" s="134" t="s">
-        <v>231</v>
       </c>
       <c r="E19" s="135"/>
       <c r="F19" s="134" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G19" s="14"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="145"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="147"/>
-      <c r="N19" s="147"/>
+      <c r="H19" s="171"/>
+      <c r="I19" s="171"/>
+      <c r="J19" s="171"/>
+      <c r="K19" s="172"/>
+      <c r="L19" s="172"/>
+      <c r="M19" s="173"/>
+      <c r="N19" s="173"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="12">
         <v>10</v>
       </c>
       <c r="B20" s="126" t="s">
+        <v>232</v>
+      </c>
+      <c r="C20" s="126" t="s">
         <v>233</v>
       </c>
-      <c r="C20" s="126" t="s">
+      <c r="D20" s="128" t="s">
         <v>234</v>
-      </c>
-      <c r="D20" s="128" t="s">
-        <v>235</v>
       </c>
       <c r="E20" s="129"/>
       <c r="F20" s="130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G20" s="14"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="145"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="147"/>
-      <c r="N20" s="147"/>
+      <c r="H20" s="171"/>
+      <c r="I20" s="171"/>
+      <c r="J20" s="171"/>
+      <c r="K20" s="172"/>
+      <c r="L20" s="172"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
     </row>
     <row r="21" spans="1:19">
       <c r="A21" s="12">
         <v>11</v>
       </c>
       <c r="B21" s="126" t="s">
+        <v>235</v>
+      </c>
+      <c r="C21" s="126" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="126" t="s">
-        <v>237</v>
-      </c>
       <c r="D21" s="128" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E21" s="129"/>
       <c r="F21" s="130" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G21" s="14"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="145"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="147"/>
-      <c r="N21" s="147"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="171"/>
+      <c r="J21" s="171"/>
+      <c r="K21" s="172"/>
+      <c r="L21" s="172"/>
+      <c r="M21" s="173"/>
+      <c r="N21" s="173"/>
       <c r="Q21" s="83" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -5377,26 +5414,26 @@
         <v>12</v>
       </c>
       <c r="B22" s="126" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C22" s="126" t="s">
+        <v>237</v>
+      </c>
+      <c r="D22" s="128" t="s">
         <v>238</v>
-      </c>
-      <c r="D22" s="128" t="s">
-        <v>239</v>
       </c>
       <c r="E22" s="129"/>
       <c r="F22" s="130" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G22" s="14"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="145"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="147"/>
-      <c r="N22" s="147"/>
+      <c r="H22" s="171"/>
+      <c r="I22" s="171"/>
+      <c r="J22" s="171"/>
+      <c r="K22" s="172"/>
+      <c r="L22" s="172"/>
+      <c r="M22" s="173"/>
+      <c r="N22" s="173"/>
       <c r="Q22" s="84">
         <v>0</v>
       </c>
@@ -5409,26 +5446,26 @@
         <v>13</v>
       </c>
       <c r="B23" s="126" t="s">
+        <v>240</v>
+      </c>
+      <c r="C23" s="126" t="s">
         <v>241</v>
       </c>
-      <c r="C23" s="126" t="s">
+      <c r="D23" s="128" t="s">
         <v>242</v>
-      </c>
-      <c r="D23" s="128" t="s">
-        <v>243</v>
       </c>
       <c r="E23" s="129"/>
       <c r="F23" s="130" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G23" s="14"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="147"/>
-      <c r="N23" s="147"/>
+      <c r="H23" s="171"/>
+      <c r="I23" s="171"/>
+      <c r="J23" s="171"/>
+      <c r="K23" s="172"/>
+      <c r="L23" s="172"/>
+      <c r="M23" s="173"/>
+      <c r="N23" s="173"/>
       <c r="Q23" s="85">
         <v>70</v>
       </c>
@@ -5441,26 +5478,26 @@
         <v>14</v>
       </c>
       <c r="B24" s="126" t="s">
+        <v>244</v>
+      </c>
+      <c r="C24" s="133" t="s">
         <v>245</v>
       </c>
-      <c r="C24" s="133" t="s">
+      <c r="D24" s="134" t="s">
         <v>246</v>
-      </c>
-      <c r="D24" s="134" t="s">
-        <v>247</v>
       </c>
       <c r="E24" s="135"/>
       <c r="F24" s="134" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G24" s="14"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="145"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="147"/>
-      <c r="N24" s="147"/>
+      <c r="H24" s="171"/>
+      <c r="I24" s="171"/>
+      <c r="J24" s="171"/>
+      <c r="K24" s="172"/>
+      <c r="L24" s="172"/>
+      <c r="M24" s="173"/>
+      <c r="N24" s="173"/>
       <c r="Q24" s="85">
         <v>73.34</v>
       </c>
@@ -5473,26 +5510,26 @@
         <v>15</v>
       </c>
       <c r="B25" s="126" t="s">
+        <v>247</v>
+      </c>
+      <c r="C25" s="126" t="s">
         <v>248</v>
       </c>
-      <c r="C25" s="126" t="s">
+      <c r="D25" s="128" t="s">
         <v>249</v>
-      </c>
-      <c r="D25" s="128" t="s">
-        <v>250</v>
       </c>
       <c r="E25" s="129"/>
       <c r="F25" s="130" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G25" s="14"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="147"/>
-      <c r="N25" s="147"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="172"/>
+      <c r="L25" s="172"/>
+      <c r="M25" s="173"/>
+      <c r="N25" s="173"/>
       <c r="Q25" s="85">
         <v>76.680000000000007</v>
       </c>
@@ -5505,26 +5542,26 @@
         <v>16</v>
       </c>
       <c r="B26" s="126" t="s">
+        <v>250</v>
+      </c>
+      <c r="C26" s="126" t="s">
         <v>251</v>
       </c>
-      <c r="C26" s="126" t="s">
+      <c r="D26" s="128" t="s">
         <v>252</v>
-      </c>
-      <c r="D26" s="128" t="s">
-        <v>253</v>
       </c>
       <c r="E26" s="129"/>
       <c r="F26" s="130" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G26" s="14"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="147"/>
-      <c r="N26" s="147"/>
+      <c r="H26" s="171"/>
+      <c r="I26" s="171"/>
+      <c r="J26" s="171"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="173"/>
+      <c r="N26" s="173"/>
       <c r="Q26" s="85">
         <v>80.02</v>
       </c>
@@ -5537,26 +5574,26 @@
         <v>17</v>
       </c>
       <c r="B27" s="126" t="s">
+        <v>253</v>
+      </c>
+      <c r="C27" s="126" t="s">
         <v>254</v>
       </c>
-      <c r="C27" s="126" t="s">
+      <c r="D27" s="128" t="s">
         <v>255</v>
-      </c>
-      <c r="D27" s="128" t="s">
-        <v>256</v>
       </c>
       <c r="E27" s="129"/>
       <c r="F27" s="130" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G27" s="14"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-      <c r="K27" s="146"/>
-      <c r="L27" s="146"/>
-      <c r="M27" s="147"/>
-      <c r="N27" s="147"/>
+      <c r="H27" s="171"/>
+      <c r="I27" s="171"/>
+      <c r="J27" s="171"/>
+      <c r="K27" s="172"/>
+      <c r="L27" s="172"/>
+      <c r="M27" s="173"/>
+      <c r="N27" s="173"/>
       <c r="Q27" s="85">
         <v>83.36</v>
       </c>
@@ -5569,26 +5606,26 @@
         <v>18</v>
       </c>
       <c r="B28" s="126" t="s">
+        <v>256</v>
+      </c>
+      <c r="C28" s="126" t="s">
         <v>257</v>
       </c>
-      <c r="C28" s="126" t="s">
+      <c r="D28" s="128" t="s">
         <v>258</v>
-      </c>
-      <c r="D28" s="128" t="s">
-        <v>259</v>
       </c>
       <c r="E28" s="129"/>
       <c r="F28" s="130" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G28" s="14"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="146"/>
-      <c r="L28" s="146"/>
-      <c r="M28" s="147"/>
-      <c r="N28" s="147"/>
+      <c r="H28" s="171"/>
+      <c r="I28" s="171"/>
+      <c r="J28" s="171"/>
+      <c r="K28" s="172"/>
+      <c r="L28" s="172"/>
+      <c r="M28" s="173"/>
+      <c r="N28" s="173"/>
       <c r="Q28" s="85">
         <v>86.7</v>
       </c>
@@ -5601,26 +5638,26 @@
         <v>19</v>
       </c>
       <c r="B29" s="126" t="s">
+        <v>260</v>
+      </c>
+      <c r="C29" s="126" t="s">
         <v>261</v>
       </c>
-      <c r="C29" s="126" t="s">
+      <c r="D29" s="128" t="s">
         <v>262</v>
-      </c>
-      <c r="D29" s="128" t="s">
-        <v>263</v>
       </c>
       <c r="E29" s="129"/>
       <c r="F29" s="130" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G29" s="14"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="145"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="147"/>
-      <c r="N29" s="147"/>
+      <c r="H29" s="171"/>
+      <c r="I29" s="171"/>
+      <c r="J29" s="171"/>
+      <c r="K29" s="172"/>
+      <c r="L29" s="172"/>
+      <c r="M29" s="173"/>
+      <c r="N29" s="173"/>
       <c r="Q29" s="85">
         <v>90.04</v>
       </c>
@@ -5633,24 +5670,24 @@
         <v>20</v>
       </c>
       <c r="B30" s="131" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C30" s="131" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D30" s="128" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E30" s="129"/>
       <c r="F30" s="130"/>
       <c r="G30" s="14"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="145"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="147"/>
-      <c r="N30" s="147"/>
+      <c r="H30" s="171"/>
+      <c r="I30" s="171"/>
+      <c r="J30" s="171"/>
+      <c r="K30" s="172"/>
+      <c r="L30" s="172"/>
+      <c r="M30" s="173"/>
+      <c r="N30" s="173"/>
       <c r="Q30" s="85">
         <v>93.38</v>
       </c>
@@ -5663,26 +5700,26 @@
         <v>21</v>
       </c>
       <c r="B31" s="126" t="s">
+        <v>265</v>
+      </c>
+      <c r="C31" s="126" t="s">
         <v>266</v>
       </c>
-      <c r="C31" s="126" t="s">
+      <c r="D31" s="128" t="s">
         <v>267</v>
-      </c>
-      <c r="D31" s="128" t="s">
-        <v>268</v>
       </c>
       <c r="E31" s="129"/>
       <c r="F31" s="131" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G31" s="14"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="145"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="147"/>
-      <c r="N31" s="147"/>
+      <c r="H31" s="171"/>
+      <c r="I31" s="171"/>
+      <c r="J31" s="171"/>
+      <c r="K31" s="172"/>
+      <c r="L31" s="172"/>
+      <c r="M31" s="173"/>
+      <c r="N31" s="173"/>
       <c r="Q31" s="84"/>
       <c r="R31" s="84"/>
     </row>
@@ -5691,26 +5728,26 @@
         <v>22</v>
       </c>
       <c r="B32" s="133" t="s">
+        <v>268</v>
+      </c>
+      <c r="C32" s="133" t="s">
         <v>269</v>
       </c>
-      <c r="C32" s="133" t="s">
+      <c r="D32" s="134" t="s">
         <v>270</v>
-      </c>
-      <c r="D32" s="134" t="s">
-        <v>271</v>
       </c>
       <c r="E32" s="129"/>
       <c r="F32" s="126" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G32" s="14"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="145"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="147"/>
-      <c r="N32" s="147"/>
+      <c r="H32" s="171"/>
+      <c r="I32" s="171"/>
+      <c r="J32" s="171"/>
+      <c r="K32" s="172"/>
+      <c r="L32" s="172"/>
+      <c r="M32" s="173"/>
+      <c r="N32" s="173"/>
       <c r="Q32" s="84">
         <v>96.72</v>
       </c>
@@ -5723,156 +5760,156 @@
         <v>23</v>
       </c>
       <c r="B33" s="133" t="s">
+        <v>272</v>
+      </c>
+      <c r="C33" s="133" t="s">
         <v>273</v>
       </c>
-      <c r="C33" s="133" t="s">
+      <c r="D33" s="134" t="s">
         <v>274</v>
-      </c>
-      <c r="D33" s="134" t="s">
-        <v>275</v>
       </c>
       <c r="E33" s="135"/>
       <c r="F33" s="133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G33" s="14"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="145"/>
-      <c r="K33" s="146"/>
-      <c r="L33" s="146"/>
-      <c r="M33" s="147"/>
-      <c r="N33" s="147"/>
+      <c r="H33" s="171"/>
+      <c r="I33" s="171"/>
+      <c r="J33" s="171"/>
+      <c r="K33" s="172"/>
+      <c r="L33" s="172"/>
+      <c r="M33" s="173"/>
+      <c r="N33" s="173"/>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="12">
         <v>24</v>
       </c>
       <c r="B34" s="126" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" s="133" t="s">
         <v>276</v>
       </c>
-      <c r="C34" s="133" t="s">
+      <c r="D34" s="134" t="s">
         <v>277</v>
-      </c>
-      <c r="D34" s="134" t="s">
-        <v>278</v>
       </c>
       <c r="E34" s="135"/>
       <c r="F34" s="133" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G34" s="14"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="145"/>
-      <c r="K34" s="146"/>
-      <c r="L34" s="146"/>
-      <c r="M34" s="147"/>
-      <c r="N34" s="147"/>
+      <c r="H34" s="171"/>
+      <c r="I34" s="171"/>
+      <c r="J34" s="171"/>
+      <c r="K34" s="172"/>
+      <c r="L34" s="172"/>
+      <c r="M34" s="173"/>
+      <c r="N34" s="173"/>
     </row>
     <row r="35" spans="1:14">
       <c r="A35" s="12">
         <v>25</v>
       </c>
       <c r="B35" s="126" t="s">
+        <v>279</v>
+      </c>
+      <c r="C35" s="133" t="s">
         <v>280</v>
       </c>
-      <c r="C35" s="133" t="s">
-        <v>281</v>
-      </c>
       <c r="D35" s="134" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E35" s="135"/>
       <c r="F35" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G35" s="14"/>
-      <c r="H35" s="145"/>
-      <c r="I35" s="145"/>
-      <c r="J35" s="145"/>
-      <c r="K35" s="146"/>
-      <c r="L35" s="146"/>
-      <c r="M35" s="147"/>
-      <c r="N35" s="147"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="171"/>
+      <c r="J35" s="171"/>
+      <c r="K35" s="172"/>
+      <c r="L35" s="172"/>
+      <c r="M35" s="173"/>
+      <c r="N35" s="173"/>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" s="12">
         <v>26</v>
       </c>
       <c r="B36" s="126" t="s">
+        <v>281</v>
+      </c>
+      <c r="C36" s="133" t="s">
         <v>282</v>
       </c>
-      <c r="C36" s="133" t="s">
+      <c r="D36" s="134" t="s">
         <v>283</v>
-      </c>
-      <c r="D36" s="134" t="s">
-        <v>284</v>
       </c>
       <c r="E36" s="135"/>
       <c r="F36" s="133" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G36" s="14"/>
-      <c r="H36" s="145"/>
-      <c r="I36" s="145"/>
-      <c r="J36" s="145"/>
-      <c r="K36" s="146"/>
-      <c r="L36" s="146"/>
-      <c r="M36" s="147"/>
-      <c r="N36" s="147"/>
+      <c r="H36" s="171"/>
+      <c r="I36" s="171"/>
+      <c r="J36" s="171"/>
+      <c r="K36" s="172"/>
+      <c r="L36" s="172"/>
+      <c r="M36" s="173"/>
+      <c r="N36" s="173"/>
     </row>
     <row r="37" spans="1:14">
       <c r="A37" s="12">
         <v>27</v>
       </c>
       <c r="B37" s="133" t="s">
+        <v>284</v>
+      </c>
+      <c r="C37" s="133" t="s">
         <v>285</v>
       </c>
-      <c r="C37" s="133" t="s">
+      <c r="D37" s="134" t="s">
         <v>286</v>
-      </c>
-      <c r="D37" s="134" t="s">
-        <v>287</v>
       </c>
       <c r="E37" s="135"/>
       <c r="F37" s="133" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G37" s="14"/>
-      <c r="H37" s="145"/>
-      <c r="I37" s="145"/>
-      <c r="J37" s="145"/>
-      <c r="K37" s="146"/>
-      <c r="L37" s="146"/>
-      <c r="M37" s="147"/>
-      <c r="N37" s="147"/>
+      <c r="H37" s="171"/>
+      <c r="I37" s="171"/>
+      <c r="J37" s="171"/>
+      <c r="K37" s="172"/>
+      <c r="L37" s="172"/>
+      <c r="M37" s="173"/>
+      <c r="N37" s="173"/>
     </row>
     <row r="38" spans="1:14">
       <c r="A38" s="12">
         <v>28</v>
       </c>
       <c r="B38" s="133" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C38" s="133" t="s">
+        <v>297</v>
+      </c>
+      <c r="D38" s="134" t="s">
         <v>298</v>
-      </c>
-      <c r="D38" s="134" t="s">
-        <v>299</v>
       </c>
       <c r="E38" s="135"/>
       <c r="F38" s="133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G38" s="14"/>
-      <c r="H38" s="145"/>
-      <c r="I38" s="145"/>
-      <c r="J38" s="145"/>
-      <c r="K38" s="146"/>
-      <c r="L38" s="146"/>
-      <c r="M38" s="147"/>
-      <c r="N38" s="147"/>
+      <c r="H38" s="171"/>
+      <c r="I38" s="171"/>
+      <c r="J38" s="171"/>
+      <c r="K38" s="172"/>
+      <c r="L38" s="172"/>
+      <c r="M38" s="173"/>
+      <c r="N38" s="173"/>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" s="12">
@@ -5880,17 +5917,17 @@
       </c>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
-      <c r="D39" s="139"/>
-      <c r="E39" s="140"/>
+      <c r="D39" s="165"/>
+      <c r="E39" s="166"/>
       <c r="F39" s="13"/>
       <c r="G39" s="14"/>
-      <c r="H39" s="145"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="145"/>
-      <c r="K39" s="146"/>
-      <c r="L39" s="146"/>
-      <c r="M39" s="147"/>
-      <c r="N39" s="147"/>
+      <c r="H39" s="171"/>
+      <c r="I39" s="171"/>
+      <c r="J39" s="171"/>
+      <c r="K39" s="172"/>
+      <c r="L39" s="172"/>
+      <c r="M39" s="173"/>
+      <c r="N39" s="173"/>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" s="12">
@@ -5898,17 +5935,17 @@
       </c>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
-      <c r="D40" s="139"/>
-      <c r="E40" s="140"/>
+      <c r="D40" s="165"/>
+      <c r="E40" s="166"/>
       <c r="F40" s="13"/>
       <c r="G40" s="14"/>
-      <c r="H40" s="145"/>
-      <c r="I40" s="145"/>
-      <c r="J40" s="145"/>
-      <c r="K40" s="146"/>
-      <c r="L40" s="146"/>
-      <c r="M40" s="147"/>
-      <c r="N40" s="147"/>
+      <c r="H40" s="171"/>
+      <c r="I40" s="171"/>
+      <c r="J40" s="171"/>
+      <c r="K40" s="172"/>
+      <c r="L40" s="172"/>
+      <c r="M40" s="173"/>
+      <c r="N40" s="173"/>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" s="12">
@@ -5916,17 +5953,17 @@
       </c>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
-      <c r="D41" s="139"/>
-      <c r="E41" s="140"/>
+      <c r="D41" s="165"/>
+      <c r="E41" s="166"/>
       <c r="F41" s="13"/>
       <c r="G41" s="14"/>
-      <c r="H41" s="145"/>
-      <c r="I41" s="145"/>
-      <c r="J41" s="145"/>
-      <c r="K41" s="146"/>
-      <c r="L41" s="146"/>
-      <c r="M41" s="147"/>
-      <c r="N41" s="147"/>
+      <c r="H41" s="171"/>
+      <c r="I41" s="171"/>
+      <c r="J41" s="171"/>
+      <c r="K41" s="172"/>
+      <c r="L41" s="172"/>
+      <c r="M41" s="173"/>
+      <c r="N41" s="173"/>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" s="12">
@@ -5934,17 +5971,17 @@
       </c>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
-      <c r="D42" s="139"/>
-      <c r="E42" s="140"/>
+      <c r="D42" s="165"/>
+      <c r="E42" s="166"/>
       <c r="F42" s="13"/>
       <c r="G42" s="14"/>
-      <c r="H42" s="145"/>
-      <c r="I42" s="145"/>
-      <c r="J42" s="145"/>
-      <c r="K42" s="146"/>
-      <c r="L42" s="146"/>
-      <c r="M42" s="147"/>
-      <c r="N42" s="147"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="171"/>
+      <c r="J42" s="171"/>
+      <c r="K42" s="172"/>
+      <c r="L42" s="172"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" s="12">
@@ -5952,17 +5989,17 @@
       </c>
       <c r="B43" s="13"/>
       <c r="C43" s="15"/>
-      <c r="D43" s="139"/>
-      <c r="E43" s="140"/>
+      <c r="D43" s="165"/>
+      <c r="E43" s="166"/>
       <c r="F43" s="13"/>
       <c r="G43" s="14"/>
-      <c r="H43" s="145"/>
-      <c r="I43" s="145"/>
-      <c r="J43" s="145"/>
-      <c r="K43" s="146"/>
-      <c r="L43" s="146"/>
-      <c r="M43" s="147"/>
-      <c r="N43" s="147"/>
+      <c r="H43" s="171"/>
+      <c r="I43" s="171"/>
+      <c r="J43" s="171"/>
+      <c r="K43" s="172"/>
+      <c r="L43" s="172"/>
+      <c r="M43" s="173"/>
+      <c r="N43" s="173"/>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" s="12">
@@ -5970,17 +6007,17 @@
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
-      <c r="D44" s="139"/>
-      <c r="E44" s="140"/>
+      <c r="D44" s="165"/>
+      <c r="E44" s="166"/>
       <c r="F44" s="13"/>
       <c r="G44" s="14"/>
-      <c r="H44" s="145"/>
-      <c r="I44" s="145"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="146"/>
-      <c r="M44" s="147"/>
-      <c r="N44" s="147"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="171"/>
+      <c r="J44" s="171"/>
+      <c r="K44" s="172"/>
+      <c r="L44" s="172"/>
+      <c r="M44" s="173"/>
+      <c r="N44" s="173"/>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" s="12">
@@ -5988,17 +6025,17 @@
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
-      <c r="D45" s="139"/>
-      <c r="E45" s="140"/>
+      <c r="D45" s="165"/>
+      <c r="E45" s="166"/>
       <c r="F45" s="13"/>
       <c r="G45" s="14"/>
-      <c r="H45" s="145"/>
-      <c r="I45" s="145"/>
-      <c r="J45" s="145"/>
-      <c r="K45" s="146"/>
-      <c r="L45" s="146"/>
-      <c r="M45" s="147"/>
-      <c r="N45" s="147"/>
+      <c r="H45" s="171"/>
+      <c r="I45" s="171"/>
+      <c r="J45" s="171"/>
+      <c r="K45" s="172"/>
+      <c r="L45" s="172"/>
+      <c r="M45" s="173"/>
+      <c r="N45" s="173"/>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" s="12">
@@ -6006,17 +6043,17 @@
       </c>
       <c r="B46" s="16"/>
       <c r="C46" s="13"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="140"/>
+      <c r="D46" s="165"/>
+      <c r="E46" s="166"/>
       <c r="F46" s="13"/>
       <c r="G46" s="14"/>
-      <c r="H46" s="145"/>
-      <c r="I46" s="145"/>
-      <c r="J46" s="145"/>
-      <c r="K46" s="146"/>
-      <c r="L46" s="146"/>
-      <c r="M46" s="147"/>
-      <c r="N46" s="147"/>
+      <c r="H46" s="171"/>
+      <c r="I46" s="171"/>
+      <c r="J46" s="171"/>
+      <c r="K46" s="172"/>
+      <c r="L46" s="172"/>
+      <c r="M46" s="173"/>
+      <c r="N46" s="173"/>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" s="12">
@@ -6024,17 +6061,17 @@
       </c>
       <c r="B47" s="16"/>
       <c r="C47" s="13"/>
-      <c r="D47" s="139"/>
-      <c r="E47" s="140"/>
+      <c r="D47" s="165"/>
+      <c r="E47" s="166"/>
       <c r="F47" s="13"/>
       <c r="G47" s="14"/>
-      <c r="H47" s="145"/>
-      <c r="I47" s="145"/>
-      <c r="J47" s="145"/>
-      <c r="K47" s="146"/>
-      <c r="L47" s="146"/>
-      <c r="M47" s="147"/>
-      <c r="N47" s="147"/>
+      <c r="H47" s="171"/>
+      <c r="I47" s="171"/>
+      <c r="J47" s="171"/>
+      <c r="K47" s="172"/>
+      <c r="L47" s="172"/>
+      <c r="M47" s="173"/>
+      <c r="N47" s="173"/>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" s="12">
@@ -6042,17 +6079,17 @@
       </c>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
-      <c r="D48" s="139"/>
-      <c r="E48" s="140"/>
+      <c r="D48" s="165"/>
+      <c r="E48" s="166"/>
       <c r="F48" s="13"/>
       <c r="G48" s="14"/>
-      <c r="H48" s="145"/>
-      <c r="I48" s="145"/>
-      <c r="J48" s="145"/>
-      <c r="K48" s="146"/>
-      <c r="L48" s="146"/>
-      <c r="M48" s="147"/>
-      <c r="N48" s="147"/>
+      <c r="H48" s="171"/>
+      <c r="I48" s="171"/>
+      <c r="J48" s="171"/>
+      <c r="K48" s="172"/>
+      <c r="L48" s="172"/>
+      <c r="M48" s="173"/>
+      <c r="N48" s="173"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="12">
@@ -6060,17 +6097,17 @@
       </c>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
-      <c r="D49" s="139"/>
-      <c r="E49" s="140"/>
+      <c r="D49" s="165"/>
+      <c r="E49" s="166"/>
       <c r="F49" s="13"/>
       <c r="G49" s="14"/>
-      <c r="H49" s="145"/>
-      <c r="I49" s="145"/>
-      <c r="J49" s="145"/>
-      <c r="K49" s="146"/>
-      <c r="L49" s="146"/>
-      <c r="M49" s="147"/>
-      <c r="N49" s="147"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="172"/>
+      <c r="L49" s="172"/>
+      <c r="M49" s="173"/>
+      <c r="N49" s="173"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="12">
@@ -6078,17 +6115,17 @@
       </c>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
-      <c r="D50" s="139"/>
-      <c r="E50" s="140"/>
+      <c r="D50" s="165"/>
+      <c r="E50" s="166"/>
       <c r="F50" s="13"/>
       <c r="G50" s="14"/>
-      <c r="H50" s="145"/>
-      <c r="I50" s="145"/>
-      <c r="J50" s="145"/>
-      <c r="K50" s="146"/>
-      <c r="L50" s="146"/>
-      <c r="M50" s="147"/>
-      <c r="N50" s="147"/>
+      <c r="H50" s="171"/>
+      <c r="I50" s="171"/>
+      <c r="J50" s="171"/>
+      <c r="K50" s="172"/>
+      <c r="L50" s="172"/>
+      <c r="M50" s="173"/>
+      <c r="N50" s="173"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="12">
@@ -6096,17 +6133,17 @@
       </c>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
-      <c r="D51" s="139"/>
-      <c r="E51" s="140"/>
+      <c r="D51" s="165"/>
+      <c r="E51" s="166"/>
       <c r="F51" s="13"/>
       <c r="G51" s="14"/>
-      <c r="H51" s="145"/>
-      <c r="I51" s="145"/>
-      <c r="J51" s="145"/>
-      <c r="K51" s="146"/>
-      <c r="L51" s="146"/>
-      <c r="M51" s="147"/>
-      <c r="N51" s="147"/>
+      <c r="H51" s="171"/>
+      <c r="I51" s="171"/>
+      <c r="J51" s="171"/>
+      <c r="K51" s="172"/>
+      <c r="L51" s="172"/>
+      <c r="M51" s="173"/>
+      <c r="N51" s="173"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="12">
@@ -6114,17 +6151,17 @@
       </c>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
-      <c r="D52" s="139"/>
-      <c r="E52" s="140"/>
+      <c r="D52" s="165"/>
+      <c r="E52" s="166"/>
       <c r="F52" s="13"/>
       <c r="G52" s="14"/>
-      <c r="H52" s="145"/>
-      <c r="I52" s="145"/>
-      <c r="J52" s="145"/>
-      <c r="K52" s="146"/>
-      <c r="L52" s="146"/>
-      <c r="M52" s="147"/>
-      <c r="N52" s="147"/>
+      <c r="H52" s="171"/>
+      <c r="I52" s="171"/>
+      <c r="J52" s="171"/>
+      <c r="K52" s="172"/>
+      <c r="L52" s="172"/>
+      <c r="M52" s="173"/>
+      <c r="N52" s="173"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="12">
@@ -6132,17 +6169,17 @@
       </c>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
-      <c r="D53" s="139"/>
-      <c r="E53" s="140"/>
+      <c r="D53" s="165"/>
+      <c r="E53" s="166"/>
       <c r="F53" s="13"/>
       <c r="G53" s="14"/>
-      <c r="H53" s="145"/>
-      <c r="I53" s="145"/>
-      <c r="J53" s="145"/>
-      <c r="K53" s="146"/>
-      <c r="L53" s="146"/>
-      <c r="M53" s="147"/>
-      <c r="N53" s="147"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="172"/>
+      <c r="L53" s="172"/>
+      <c r="M53" s="173"/>
+      <c r="N53" s="173"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="12">
@@ -6150,17 +6187,17 @@
       </c>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
-      <c r="D54" s="139"/>
-      <c r="E54" s="140"/>
+      <c r="D54" s="165"/>
+      <c r="E54" s="166"/>
       <c r="F54" s="13"/>
       <c r="G54" s="14"/>
-      <c r="H54" s="145"/>
-      <c r="I54" s="145"/>
-      <c r="J54" s="145"/>
-      <c r="K54" s="146"/>
-      <c r="L54" s="146"/>
-      <c r="M54" s="147"/>
-      <c r="N54" s="147"/>
+      <c r="H54" s="171"/>
+      <c r="I54" s="171"/>
+      <c r="J54" s="171"/>
+      <c r="K54" s="172"/>
+      <c r="L54" s="172"/>
+      <c r="M54" s="173"/>
+      <c r="N54" s="173"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="12">
@@ -6168,17 +6205,17 @@
       </c>
       <c r="B55" s="13"/>
       <c r="C55" s="15"/>
-      <c r="D55" s="139"/>
-      <c r="E55" s="140"/>
+      <c r="D55" s="165"/>
+      <c r="E55" s="166"/>
       <c r="F55" s="13"/>
       <c r="G55" s="14"/>
-      <c r="H55" s="145"/>
-      <c r="I55" s="145"/>
-      <c r="J55" s="145"/>
-      <c r="K55" s="146"/>
-      <c r="L55" s="146"/>
-      <c r="M55" s="147"/>
-      <c r="N55" s="147"/>
+      <c r="H55" s="171"/>
+      <c r="I55" s="171"/>
+      <c r="J55" s="171"/>
+      <c r="K55" s="172"/>
+      <c r="L55" s="172"/>
+      <c r="M55" s="173"/>
+      <c r="N55" s="173"/>
     </row>
     <row r="56" spans="1:14" hidden="1">
       <c r="A56" s="12">
@@ -6190,13 +6227,13 @@
       <c r="E56" s="13"/>
       <c r="F56" s="13"/>
       <c r="G56" s="14"/>
-      <c r="H56" s="145"/>
-      <c r="I56" s="145"/>
-      <c r="J56" s="145"/>
-      <c r="K56" s="146"/>
-      <c r="L56" s="146"/>
-      <c r="M56" s="147"/>
-      <c r="N56" s="147"/>
+      <c r="H56" s="171"/>
+      <c r="I56" s="171"/>
+      <c r="J56" s="171"/>
+      <c r="K56" s="172"/>
+      <c r="L56" s="172"/>
+      <c r="M56" s="173"/>
+      <c r="N56" s="173"/>
     </row>
     <row r="57" spans="1:14" hidden="1">
       <c r="A57" s="12">
@@ -6208,13 +6245,13 @@
       <c r="E57" s="74"/>
       <c r="F57" s="74"/>
       <c r="G57" s="14"/>
-      <c r="H57" s="145"/>
-      <c r="I57" s="145"/>
-      <c r="J57" s="145"/>
-      <c r="K57" s="146"/>
-      <c r="L57" s="146"/>
-      <c r="M57" s="147"/>
-      <c r="N57" s="147"/>
+      <c r="H57" s="171"/>
+      <c r="I57" s="171"/>
+      <c r="J57" s="171"/>
+      <c r="K57" s="172"/>
+      <c r="L57" s="172"/>
+      <c r="M57" s="173"/>
+      <c r="N57" s="173"/>
     </row>
     <row r="58" spans="1:14" hidden="1">
       <c r="A58" s="12">
@@ -6226,13 +6263,13 @@
       <c r="E58" s="13"/>
       <c r="F58" s="13"/>
       <c r="G58" s="14"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="145"/>
-      <c r="K58" s="146"/>
-      <c r="L58" s="146"/>
-      <c r="M58" s="147"/>
-      <c r="N58" s="147"/>
+      <c r="H58" s="171"/>
+      <c r="I58" s="171"/>
+      <c r="J58" s="171"/>
+      <c r="K58" s="172"/>
+      <c r="L58" s="172"/>
+      <c r="M58" s="173"/>
+      <c r="N58" s="173"/>
     </row>
     <row r="59" spans="1:14" hidden="1">
       <c r="A59" s="12">
@@ -6244,13 +6281,13 @@
       <c r="E59" s="74"/>
       <c r="F59" s="74"/>
       <c r="G59" s="14"/>
-      <c r="H59" s="145"/>
-      <c r="I59" s="145"/>
-      <c r="J59" s="145"/>
-      <c r="K59" s="146"/>
-      <c r="L59" s="146"/>
-      <c r="M59" s="147"/>
-      <c r="N59" s="147"/>
+      <c r="H59" s="171"/>
+      <c r="I59" s="171"/>
+      <c r="J59" s="171"/>
+      <c r="K59" s="172"/>
+      <c r="L59" s="172"/>
+      <c r="M59" s="173"/>
+      <c r="N59" s="173"/>
     </row>
     <row r="60" spans="1:14" hidden="1">
       <c r="A60" s="12">
@@ -6262,13 +6299,13 @@
       <c r="E60" s="74"/>
       <c r="F60" s="74"/>
       <c r="G60" s="14"/>
-      <c r="H60" s="145"/>
-      <c r="I60" s="145"/>
-      <c r="J60" s="145"/>
-      <c r="K60" s="146"/>
-      <c r="L60" s="146"/>
-      <c r="M60" s="147"/>
-      <c r="N60" s="147"/>
+      <c r="H60" s="171"/>
+      <c r="I60" s="171"/>
+      <c r="J60" s="171"/>
+      <c r="K60" s="172"/>
+      <c r="L60" s="172"/>
+      <c r="M60" s="173"/>
+      <c r="N60" s="173"/>
     </row>
     <row r="61" spans="1:14" hidden="1">
       <c r="A61" s="12">
@@ -6280,13 +6317,13 @@
       <c r="E61" s="13"/>
       <c r="F61" s="13"/>
       <c r="G61" s="14"/>
-      <c r="H61" s="145"/>
-      <c r="I61" s="145"/>
-      <c r="J61" s="145"/>
-      <c r="K61" s="146"/>
-      <c r="L61" s="146"/>
-      <c r="M61" s="147"/>
-      <c r="N61" s="147"/>
+      <c r="H61" s="171"/>
+      <c r="I61" s="171"/>
+      <c r="J61" s="171"/>
+      <c r="K61" s="172"/>
+      <c r="L61" s="172"/>
+      <c r="M61" s="173"/>
+      <c r="N61" s="173"/>
     </row>
     <row r="62" spans="1:14" hidden="1">
       <c r="A62" s="12">
@@ -6298,13 +6335,13 @@
       <c r="E62" s="13"/>
       <c r="F62" s="13"/>
       <c r="G62" s="14"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145"/>
-      <c r="J62" s="145"/>
-      <c r="K62" s="146"/>
-      <c r="L62" s="146"/>
-      <c r="M62" s="147"/>
-      <c r="N62" s="147"/>
+      <c r="H62" s="171"/>
+      <c r="I62" s="171"/>
+      <c r="J62" s="171"/>
+      <c r="K62" s="172"/>
+      <c r="L62" s="172"/>
+      <c r="M62" s="173"/>
+      <c r="N62" s="173"/>
     </row>
     <row r="63" spans="1:14" hidden="1">
       <c r="A63" s="12">
@@ -6316,13 +6353,13 @@
       <c r="E63" s="13"/>
       <c r="F63" s="13"/>
       <c r="G63" s="14"/>
-      <c r="H63" s="145"/>
-      <c r="I63" s="145"/>
-      <c r="J63" s="145"/>
-      <c r="K63" s="146"/>
-      <c r="L63" s="146"/>
-      <c r="M63" s="147"/>
-      <c r="N63" s="147"/>
+      <c r="H63" s="171"/>
+      <c r="I63" s="171"/>
+      <c r="J63" s="171"/>
+      <c r="K63" s="172"/>
+      <c r="L63" s="172"/>
+      <c r="M63" s="173"/>
+      <c r="N63" s="173"/>
     </row>
     <row r="64" spans="1:14" hidden="1">
       <c r="A64" s="12">
@@ -6334,13 +6371,13 @@
       <c r="E64" s="13"/>
       <c r="F64" s="13"/>
       <c r="G64" s="14"/>
-      <c r="H64" s="145"/>
-      <c r="I64" s="145"/>
-      <c r="J64" s="145"/>
-      <c r="K64" s="146"/>
-      <c r="L64" s="146"/>
-      <c r="M64" s="147"/>
-      <c r="N64" s="147"/>
+      <c r="H64" s="171"/>
+      <c r="I64" s="171"/>
+      <c r="J64" s="171"/>
+      <c r="K64" s="172"/>
+      <c r="L64" s="172"/>
+      <c r="M64" s="173"/>
+      <c r="N64" s="173"/>
     </row>
     <row r="65" spans="1:14" hidden="1">
       <c r="A65" s="12">
@@ -6352,13 +6389,13 @@
       <c r="E65" s="13"/>
       <c r="F65" s="13"/>
       <c r="G65" s="14"/>
-      <c r="H65" s="145"/>
-      <c r="I65" s="145"/>
-      <c r="J65" s="145"/>
-      <c r="K65" s="146"/>
-      <c r="L65" s="146"/>
-      <c r="M65" s="147"/>
-      <c r="N65" s="147"/>
+      <c r="H65" s="171"/>
+      <c r="I65" s="171"/>
+      <c r="J65" s="171"/>
+      <c r="K65" s="172"/>
+      <c r="L65" s="172"/>
+      <c r="M65" s="173"/>
+      <c r="N65" s="173"/>
     </row>
     <row r="66" spans="1:14" hidden="1">
       <c r="A66" s="12">
@@ -6370,13 +6407,13 @@
       <c r="E66" s="13"/>
       <c r="F66" s="13"/>
       <c r="G66" s="14"/>
-      <c r="H66" s="145"/>
-      <c r="I66" s="145"/>
-      <c r="J66" s="145"/>
-      <c r="K66" s="146"/>
-      <c r="L66" s="146"/>
-      <c r="M66" s="147"/>
-      <c r="N66" s="147"/>
+      <c r="H66" s="171"/>
+      <c r="I66" s="171"/>
+      <c r="J66" s="171"/>
+      <c r="K66" s="172"/>
+      <c r="L66" s="172"/>
+      <c r="M66" s="173"/>
+      <c r="N66" s="173"/>
     </row>
     <row r="67" spans="1:14" hidden="1">
       <c r="A67" s="12">
@@ -6388,13 +6425,13 @@
       <c r="E67" s="13"/>
       <c r="F67" s="74"/>
       <c r="G67" s="14"/>
-      <c r="H67" s="145"/>
-      <c r="I67" s="145"/>
-      <c r="J67" s="145"/>
-      <c r="K67" s="146"/>
-      <c r="L67" s="146"/>
-      <c r="M67" s="147"/>
-      <c r="N67" s="147"/>
+      <c r="H67" s="171"/>
+      <c r="I67" s="171"/>
+      <c r="J67" s="171"/>
+      <c r="K67" s="172"/>
+      <c r="L67" s="172"/>
+      <c r="M67" s="173"/>
+      <c r="N67" s="173"/>
     </row>
     <row r="68" spans="1:14" hidden="1">
       <c r="A68" s="12">
@@ -6406,13 +6443,13 @@
       <c r="E68" s="13"/>
       <c r="F68" s="13"/>
       <c r="G68" s="14"/>
-      <c r="H68" s="145"/>
-      <c r="I68" s="145"/>
-      <c r="J68" s="145"/>
-      <c r="K68" s="146"/>
-      <c r="L68" s="146"/>
-      <c r="M68" s="147"/>
-      <c r="N68" s="147"/>
+      <c r="H68" s="171"/>
+      <c r="I68" s="171"/>
+      <c r="J68" s="171"/>
+      <c r="K68" s="172"/>
+      <c r="L68" s="172"/>
+      <c r="M68" s="173"/>
+      <c r="N68" s="173"/>
     </row>
     <row r="69" spans="1:14" hidden="1">
       <c r="A69" s="12">
@@ -6424,13 +6461,13 @@
       <c r="E69" s="13"/>
       <c r="F69" s="13"/>
       <c r="G69" s="14"/>
-      <c r="H69" s="145"/>
-      <c r="I69" s="145"/>
-      <c r="J69" s="145"/>
-      <c r="K69" s="146"/>
-      <c r="L69" s="146"/>
-      <c r="M69" s="147"/>
-      <c r="N69" s="147"/>
+      <c r="H69" s="171"/>
+      <c r="I69" s="171"/>
+      <c r="J69" s="171"/>
+      <c r="K69" s="172"/>
+      <c r="L69" s="172"/>
+      <c r="M69" s="173"/>
+      <c r="N69" s="173"/>
     </row>
     <row r="70" spans="1:14" hidden="1">
       <c r="A70" s="12">
@@ -6442,13 +6479,13 @@
       <c r="E70" s="13"/>
       <c r="F70" s="13"/>
       <c r="G70" s="14"/>
-      <c r="H70" s="145"/>
-      <c r="I70" s="145"/>
-      <c r="J70" s="145"/>
-      <c r="K70" s="146"/>
-      <c r="L70" s="146"/>
-      <c r="M70" s="147"/>
-      <c r="N70" s="147"/>
+      <c r="H70" s="171"/>
+      <c r="I70" s="171"/>
+      <c r="J70" s="171"/>
+      <c r="K70" s="172"/>
+      <c r="L70" s="172"/>
+      <c r="M70" s="173"/>
+      <c r="N70" s="173"/>
     </row>
     <row r="71" spans="1:14" hidden="1">
       <c r="A71" s="12">
@@ -6460,13 +6497,13 @@
       <c r="E71" s="74"/>
       <c r="F71" s="74"/>
       <c r="G71" s="14"/>
-      <c r="H71" s="145"/>
-      <c r="I71" s="145"/>
-      <c r="J71" s="145"/>
-      <c r="K71" s="146"/>
-      <c r="L71" s="146"/>
-      <c r="M71" s="147"/>
-      <c r="N71" s="147"/>
+      <c r="H71" s="171"/>
+      <c r="I71" s="171"/>
+      <c r="J71" s="171"/>
+      <c r="K71" s="172"/>
+      <c r="L71" s="172"/>
+      <c r="M71" s="173"/>
+      <c r="N71" s="173"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1"/>
@@ -6902,452 +6939,452 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:99" ht="15" customHeight="1">
-      <c r="A2" s="189" t="s">
+      <c r="A2" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
-      <c r="D2" s="189"/>
-      <c r="E2" s="189"/>
-      <c r="F2" s="189"/>
-      <c r="G2" s="189"/>
-      <c r="H2" s="189"/>
-      <c r="I2" s="189"/>
-      <c r="J2" s="189"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
-      <c r="M2" s="189"/>
-      <c r="N2" s="189"/>
-      <c r="O2" s="189"/>
-      <c r="P2" s="189"/>
-      <c r="Q2" s="189"/>
-      <c r="R2" s="189"/>
-      <c r="S2" s="189"/>
-      <c r="T2" s="189"/>
-      <c r="U2" s="189"/>
-      <c r="V2" s="189"/>
-      <c r="W2" s="189"/>
-      <c r="X2" s="189"/>
-      <c r="Y2" s="189"/>
-      <c r="Z2" s="189"/>
-      <c r="AA2" s="189"/>
-      <c r="AB2" s="189"/>
-      <c r="AC2" s="189"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="189"/>
-      <c r="AF2" s="189"/>
-      <c r="AG2" s="189"/>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="189"/>
-      <c r="AJ2" s="189"/>
-      <c r="AK2" s="189"/>
-      <c r="AL2" s="189"/>
-      <c r="AM2" s="189"/>
-      <c r="AN2" s="189"/>
-      <c r="AO2" s="189"/>
-      <c r="AP2" s="189"/>
-      <c r="AQ2" s="189"/>
-      <c r="AR2" s="189"/>
-      <c r="AS2" s="189"/>
-      <c r="AT2" s="189"/>
-      <c r="AU2" s="189"/>
-      <c r="AV2" s="189"/>
-      <c r="AW2" s="189"/>
-      <c r="AX2" s="189"/>
-      <c r="AY2" s="189"/>
-      <c r="AZ2" s="189"/>
-      <c r="BA2" s="189"/>
-      <c r="BB2" s="189"/>
-      <c r="BC2" s="189"/>
-      <c r="BD2" s="189"/>
-      <c r="BE2" s="189"/>
-      <c r="BF2" s="189"/>
-      <c r="BG2" s="189"/>
-      <c r="BH2" s="189"/>
-      <c r="BI2" s="189"/>
-      <c r="BJ2" s="189"/>
-      <c r="BK2" s="189"/>
-      <c r="BL2" s="189"/>
-      <c r="BM2" s="189"/>
-      <c r="BN2" s="189"/>
-      <c r="BO2" s="189"/>
-      <c r="BP2" s="189"/>
-      <c r="BQ2" s="189"/>
-      <c r="BR2" s="189"/>
-      <c r="BS2" s="189"/>
-      <c r="BT2" s="189"/>
-      <c r="BU2" s="189"/>
-      <c r="BV2" s="189"/>
-      <c r="BW2" s="189"/>
-      <c r="BX2" s="189"/>
-      <c r="BY2" s="189"/>
-      <c r="BZ2" s="189"/>
-      <c r="CA2" s="189"/>
-      <c r="CB2" s="189"/>
-      <c r="CC2" s="189"/>
-      <c r="CD2" s="189"/>
-      <c r="CE2" s="189"/>
-      <c r="CF2" s="189"/>
-      <c r="CG2" s="189"/>
-      <c r="CH2" s="189"/>
-      <c r="CI2" s="189"/>
-      <c r="CJ2" s="189"/>
-      <c r="CK2" s="189"/>
-      <c r="CL2" s="189"/>
-      <c r="CM2" s="189"/>
-      <c r="CN2" s="189"/>
-      <c r="CO2" s="189"/>
-      <c r="CP2" s="189"/>
-      <c r="CQ2" s="189"/>
-      <c r="CR2" s="189"/>
-      <c r="CS2" s="189"/>
-      <c r="CT2" s="189"/>
-      <c r="CU2" s="189"/>
+      <c r="B2" s="215"/>
+      <c r="C2" s="215"/>
+      <c r="D2" s="215"/>
+      <c r="E2" s="215"/>
+      <c r="F2" s="215"/>
+      <c r="G2" s="215"/>
+      <c r="H2" s="215"/>
+      <c r="I2" s="215"/>
+      <c r="J2" s="215"/>
+      <c r="K2" s="215"/>
+      <c r="L2" s="215"/>
+      <c r="M2" s="215"/>
+      <c r="N2" s="215"/>
+      <c r="O2" s="215"/>
+      <c r="P2" s="215"/>
+      <c r="Q2" s="215"/>
+      <c r="R2" s="215"/>
+      <c r="S2" s="215"/>
+      <c r="T2" s="215"/>
+      <c r="U2" s="215"/>
+      <c r="V2" s="215"/>
+      <c r="W2" s="215"/>
+      <c r="X2" s="215"/>
+      <c r="Y2" s="215"/>
+      <c r="Z2" s="215"/>
+      <c r="AA2" s="215"/>
+      <c r="AB2" s="215"/>
+      <c r="AC2" s="215"/>
+      <c r="AD2" s="215"/>
+      <c r="AE2" s="215"/>
+      <c r="AF2" s="215"/>
+      <c r="AG2" s="215"/>
+      <c r="AH2" s="215"/>
+      <c r="AI2" s="215"/>
+      <c r="AJ2" s="215"/>
+      <c r="AK2" s="215"/>
+      <c r="AL2" s="215"/>
+      <c r="AM2" s="215"/>
+      <c r="AN2" s="215"/>
+      <c r="AO2" s="215"/>
+      <c r="AP2" s="215"/>
+      <c r="AQ2" s="215"/>
+      <c r="AR2" s="215"/>
+      <c r="AS2" s="215"/>
+      <c r="AT2" s="215"/>
+      <c r="AU2" s="215"/>
+      <c r="AV2" s="215"/>
+      <c r="AW2" s="215"/>
+      <c r="AX2" s="215"/>
+      <c r="AY2" s="215"/>
+      <c r="AZ2" s="215"/>
+      <c r="BA2" s="215"/>
+      <c r="BB2" s="215"/>
+      <c r="BC2" s="215"/>
+      <c r="BD2" s="215"/>
+      <c r="BE2" s="215"/>
+      <c r="BF2" s="215"/>
+      <c r="BG2" s="215"/>
+      <c r="BH2" s="215"/>
+      <c r="BI2" s="215"/>
+      <c r="BJ2" s="215"/>
+      <c r="BK2" s="215"/>
+      <c r="BL2" s="215"/>
+      <c r="BM2" s="215"/>
+      <c r="BN2" s="215"/>
+      <c r="BO2" s="215"/>
+      <c r="BP2" s="215"/>
+      <c r="BQ2" s="215"/>
+      <c r="BR2" s="215"/>
+      <c r="BS2" s="215"/>
+      <c r="BT2" s="215"/>
+      <c r="BU2" s="215"/>
+      <c r="BV2" s="215"/>
+      <c r="BW2" s="215"/>
+      <c r="BX2" s="215"/>
+      <c r="BY2" s="215"/>
+      <c r="BZ2" s="215"/>
+      <c r="CA2" s="215"/>
+      <c r="CB2" s="215"/>
+      <c r="CC2" s="215"/>
+      <c r="CD2" s="215"/>
+      <c r="CE2" s="215"/>
+      <c r="CF2" s="215"/>
+      <c r="CG2" s="215"/>
+      <c r="CH2" s="215"/>
+      <c r="CI2" s="215"/>
+      <c r="CJ2" s="215"/>
+      <c r="CK2" s="215"/>
+      <c r="CL2" s="215"/>
+      <c r="CM2" s="215"/>
+      <c r="CN2" s="215"/>
+      <c r="CO2" s="215"/>
+      <c r="CP2" s="215"/>
+      <c r="CQ2" s="215"/>
+      <c r="CR2" s="215"/>
+      <c r="CS2" s="215"/>
+      <c r="CT2" s="215"/>
+      <c r="CU2" s="215"/>
     </row>
     <row r="3" spans="1:99" ht="15" customHeight="1">
-      <c r="A3" s="189"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="189"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
-      <c r="F3" s="189"/>
-      <c r="G3" s="189"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="189"/>
-      <c r="J3" s="189"/>
-      <c r="K3" s="189"/>
-      <c r="L3" s="189"/>
-      <c r="M3" s="189"/>
-      <c r="N3" s="189"/>
-      <c r="O3" s="189"/>
-      <c r="P3" s="189"/>
-      <c r="Q3" s="189"/>
-      <c r="R3" s="189"/>
-      <c r="S3" s="189"/>
-      <c r="T3" s="189"/>
-      <c r="U3" s="189"/>
-      <c r="V3" s="189"/>
-      <c r="W3" s="189"/>
-      <c r="X3" s="189"/>
-      <c r="Y3" s="189"/>
-      <c r="Z3" s="189"/>
-      <c r="AA3" s="189"/>
-      <c r="AB3" s="189"/>
-      <c r="AC3" s="189"/>
-      <c r="AD3" s="189"/>
-      <c r="AE3" s="189"/>
-      <c r="AF3" s="189"/>
-      <c r="AG3" s="189"/>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="189"/>
-      <c r="AJ3" s="189"/>
-      <c r="AK3" s="189"/>
-      <c r="AL3" s="189"/>
-      <c r="AM3" s="189"/>
-      <c r="AN3" s="189"/>
-      <c r="AO3" s="189"/>
-      <c r="AP3" s="189"/>
-      <c r="AQ3" s="189"/>
-      <c r="AR3" s="189"/>
-      <c r="AS3" s="189"/>
-      <c r="AT3" s="189"/>
-      <c r="AU3" s="189"/>
-      <c r="AV3" s="189"/>
-      <c r="AW3" s="189"/>
-      <c r="AX3" s="189"/>
-      <c r="AY3" s="189"/>
-      <c r="AZ3" s="189"/>
-      <c r="BA3" s="189"/>
-      <c r="BB3" s="189"/>
-      <c r="BC3" s="189"/>
-      <c r="BD3" s="189"/>
-      <c r="BE3" s="189"/>
-      <c r="BF3" s="189"/>
-      <c r="BG3" s="189"/>
-      <c r="BH3" s="189"/>
-      <c r="BI3" s="189"/>
-      <c r="BJ3" s="189"/>
-      <c r="BK3" s="189"/>
-      <c r="BL3" s="189"/>
-      <c r="BM3" s="189"/>
-      <c r="BN3" s="189"/>
-      <c r="BO3" s="189"/>
-      <c r="BP3" s="189"/>
-      <c r="BQ3" s="189"/>
-      <c r="BR3" s="189"/>
-      <c r="BS3" s="189"/>
-      <c r="BT3" s="189"/>
-      <c r="BU3" s="189"/>
-      <c r="BV3" s="189"/>
-      <c r="BW3" s="189"/>
-      <c r="BX3" s="189"/>
-      <c r="BY3" s="189"/>
-      <c r="BZ3" s="189"/>
-      <c r="CA3" s="189"/>
-      <c r="CB3" s="189"/>
-      <c r="CC3" s="189"/>
-      <c r="CD3" s="189"/>
-      <c r="CE3" s="189"/>
-      <c r="CF3" s="189"/>
-      <c r="CG3" s="189"/>
-      <c r="CH3" s="189"/>
-      <c r="CI3" s="189"/>
-      <c r="CJ3" s="189"/>
-      <c r="CK3" s="189"/>
-      <c r="CL3" s="189"/>
-      <c r="CM3" s="189"/>
-      <c r="CN3" s="189"/>
-      <c r="CO3" s="189"/>
-      <c r="CP3" s="189"/>
-      <c r="CQ3" s="189"/>
-      <c r="CR3" s="189"/>
-      <c r="CS3" s="189"/>
-      <c r="CT3" s="189"/>
-      <c r="CU3" s="189"/>
+      <c r="A3" s="215"/>
+      <c r="B3" s="215"/>
+      <c r="C3" s="215"/>
+      <c r="D3" s="215"/>
+      <c r="E3" s="215"/>
+      <c r="F3" s="215"/>
+      <c r="G3" s="215"/>
+      <c r="H3" s="215"/>
+      <c r="I3" s="215"/>
+      <c r="J3" s="215"/>
+      <c r="K3" s="215"/>
+      <c r="L3" s="215"/>
+      <c r="M3" s="215"/>
+      <c r="N3" s="215"/>
+      <c r="O3" s="215"/>
+      <c r="P3" s="215"/>
+      <c r="Q3" s="215"/>
+      <c r="R3" s="215"/>
+      <c r="S3" s="215"/>
+      <c r="T3" s="215"/>
+      <c r="U3" s="215"/>
+      <c r="V3" s="215"/>
+      <c r="W3" s="215"/>
+      <c r="X3" s="215"/>
+      <c r="Y3" s="215"/>
+      <c r="Z3" s="215"/>
+      <c r="AA3" s="215"/>
+      <c r="AB3" s="215"/>
+      <c r="AC3" s="215"/>
+      <c r="AD3" s="215"/>
+      <c r="AE3" s="215"/>
+      <c r="AF3" s="215"/>
+      <c r="AG3" s="215"/>
+      <c r="AH3" s="215"/>
+      <c r="AI3" s="215"/>
+      <c r="AJ3" s="215"/>
+      <c r="AK3" s="215"/>
+      <c r="AL3" s="215"/>
+      <c r="AM3" s="215"/>
+      <c r="AN3" s="215"/>
+      <c r="AO3" s="215"/>
+      <c r="AP3" s="215"/>
+      <c r="AQ3" s="215"/>
+      <c r="AR3" s="215"/>
+      <c r="AS3" s="215"/>
+      <c r="AT3" s="215"/>
+      <c r="AU3" s="215"/>
+      <c r="AV3" s="215"/>
+      <c r="AW3" s="215"/>
+      <c r="AX3" s="215"/>
+      <c r="AY3" s="215"/>
+      <c r="AZ3" s="215"/>
+      <c r="BA3" s="215"/>
+      <c r="BB3" s="215"/>
+      <c r="BC3" s="215"/>
+      <c r="BD3" s="215"/>
+      <c r="BE3" s="215"/>
+      <c r="BF3" s="215"/>
+      <c r="BG3" s="215"/>
+      <c r="BH3" s="215"/>
+      <c r="BI3" s="215"/>
+      <c r="BJ3" s="215"/>
+      <c r="BK3" s="215"/>
+      <c r="BL3" s="215"/>
+      <c r="BM3" s="215"/>
+      <c r="BN3" s="215"/>
+      <c r="BO3" s="215"/>
+      <c r="BP3" s="215"/>
+      <c r="BQ3" s="215"/>
+      <c r="BR3" s="215"/>
+      <c r="BS3" s="215"/>
+      <c r="BT3" s="215"/>
+      <c r="BU3" s="215"/>
+      <c r="BV3" s="215"/>
+      <c r="BW3" s="215"/>
+      <c r="BX3" s="215"/>
+      <c r="BY3" s="215"/>
+      <c r="BZ3" s="215"/>
+      <c r="CA3" s="215"/>
+      <c r="CB3" s="215"/>
+      <c r="CC3" s="215"/>
+      <c r="CD3" s="215"/>
+      <c r="CE3" s="215"/>
+      <c r="CF3" s="215"/>
+      <c r="CG3" s="215"/>
+      <c r="CH3" s="215"/>
+      <c r="CI3" s="215"/>
+      <c r="CJ3" s="215"/>
+      <c r="CK3" s="215"/>
+      <c r="CL3" s="215"/>
+      <c r="CM3" s="215"/>
+      <c r="CN3" s="215"/>
+      <c r="CO3" s="215"/>
+      <c r="CP3" s="215"/>
+      <c r="CQ3" s="215"/>
+      <c r="CR3" s="215"/>
+      <c r="CS3" s="215"/>
+      <c r="CT3" s="215"/>
+      <c r="CU3" s="215"/>
     </row>
     <row r="4" spans="1:99" ht="15.75" thickBot="1"/>
     <row r="5" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A5" s="216" t="s">
+      <c r="A5" s="242" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="219" t="s">
+      <c r="B5" s="245" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="219" t="s">
+      <c r="C5" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="220" t="s">
+      <c r="D5" s="246" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="221"/>
-      <c r="F5" s="221"/>
-      <c r="G5" s="221"/>
-      <c r="H5" s="221"/>
-      <c r="I5" s="221"/>
-      <c r="J5" s="221"/>
-      <c r="K5" s="221"/>
-      <c r="L5" s="221"/>
-      <c r="M5" s="221"/>
-      <c r="N5" s="221"/>
-      <c r="O5" s="221"/>
-      <c r="P5" s="221"/>
-      <c r="Q5" s="221"/>
-      <c r="R5" s="221"/>
-      <c r="S5" s="221"/>
-      <c r="T5" s="221"/>
-      <c r="U5" s="221"/>
-      <c r="V5" s="221"/>
-      <c r="W5" s="221"/>
-      <c r="X5" s="221"/>
-      <c r="Y5" s="221"/>
-      <c r="Z5" s="221"/>
-      <c r="AA5" s="221"/>
-      <c r="AB5" s="221"/>
-      <c r="AC5" s="221"/>
-      <c r="AD5" s="221"/>
-      <c r="AE5" s="221"/>
-      <c r="AF5" s="221"/>
-      <c r="AG5" s="221"/>
-      <c r="AH5" s="221"/>
-      <c r="AI5" s="221"/>
-      <c r="AJ5" s="221"/>
-      <c r="AK5" s="221"/>
-      <c r="AL5" s="221"/>
-      <c r="AM5" s="221"/>
-      <c r="AN5" s="221"/>
-      <c r="AO5" s="221"/>
-      <c r="AP5" s="221"/>
-      <c r="AQ5" s="221"/>
-      <c r="AR5" s="221"/>
-      <c r="AS5" s="221"/>
-      <c r="AT5" s="221"/>
-      <c r="AU5" s="221"/>
-      <c r="AV5" s="221"/>
-      <c r="AW5" s="221"/>
-      <c r="AX5" s="221"/>
-      <c r="AY5" s="221"/>
-      <c r="AZ5" s="221"/>
-      <c r="BA5" s="221"/>
-      <c r="BB5" s="221"/>
-      <c r="BC5" s="221"/>
-      <c r="BD5" s="222"/>
-      <c r="BE5" s="223" t="s">
+      <c r="E5" s="247"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="247"/>
+      <c r="J5" s="247"/>
+      <c r="K5" s="247"/>
+      <c r="L5" s="247"/>
+      <c r="M5" s="247"/>
+      <c r="N5" s="247"/>
+      <c r="O5" s="247"/>
+      <c r="P5" s="247"/>
+      <c r="Q5" s="247"/>
+      <c r="R5" s="247"/>
+      <c r="S5" s="247"/>
+      <c r="T5" s="247"/>
+      <c r="U5" s="247"/>
+      <c r="V5" s="247"/>
+      <c r="W5" s="247"/>
+      <c r="X5" s="247"/>
+      <c r="Y5" s="247"/>
+      <c r="Z5" s="247"/>
+      <c r="AA5" s="247"/>
+      <c r="AB5" s="247"/>
+      <c r="AC5" s="247"/>
+      <c r="AD5" s="247"/>
+      <c r="AE5" s="247"/>
+      <c r="AF5" s="247"/>
+      <c r="AG5" s="247"/>
+      <c r="AH5" s="247"/>
+      <c r="AI5" s="247"/>
+      <c r="AJ5" s="247"/>
+      <c r="AK5" s="247"/>
+      <c r="AL5" s="247"/>
+      <c r="AM5" s="247"/>
+      <c r="AN5" s="247"/>
+      <c r="AO5" s="247"/>
+      <c r="AP5" s="247"/>
+      <c r="AQ5" s="247"/>
+      <c r="AR5" s="247"/>
+      <c r="AS5" s="247"/>
+      <c r="AT5" s="247"/>
+      <c r="AU5" s="247"/>
+      <c r="AV5" s="247"/>
+      <c r="AW5" s="247"/>
+      <c r="AX5" s="247"/>
+      <c r="AY5" s="247"/>
+      <c r="AZ5" s="247"/>
+      <c r="BA5" s="247"/>
+      <c r="BB5" s="247"/>
+      <c r="BC5" s="247"/>
+      <c r="BD5" s="248"/>
+      <c r="BE5" s="249" t="s">
         <v>31</v>
       </c>
-      <c r="BF5" s="224"/>
-      <c r="BG5" s="224"/>
-      <c r="BH5" s="224"/>
-      <c r="BI5" s="224"/>
-      <c r="BJ5" s="224"/>
-      <c r="BK5" s="224"/>
-      <c r="BL5" s="224"/>
-      <c r="BM5" s="224"/>
-      <c r="BN5" s="224"/>
-      <c r="BO5" s="224"/>
-      <c r="BP5" s="224"/>
-      <c r="BQ5" s="224"/>
-      <c r="BR5" s="224"/>
-      <c r="BS5" s="224"/>
-      <c r="BT5" s="224"/>
-      <c r="BU5" s="224"/>
-      <c r="BV5" s="224"/>
-      <c r="BW5" s="224"/>
-      <c r="BX5" s="224"/>
-      <c r="BY5" s="224"/>
-      <c r="BZ5" s="224"/>
-      <c r="CA5" s="224"/>
-      <c r="CB5" s="224"/>
-      <c r="CC5" s="224"/>
-      <c r="CD5" s="224"/>
-      <c r="CE5" s="224"/>
-      <c r="CF5" s="224"/>
-      <c r="CG5" s="224"/>
-      <c r="CH5" s="224"/>
-      <c r="CI5" s="224"/>
-      <c r="CJ5" s="224"/>
-      <c r="CK5" s="224"/>
-      <c r="CL5" s="224"/>
-      <c r="CM5" s="224"/>
-      <c r="CN5" s="224"/>
-      <c r="CO5" s="224"/>
-      <c r="CP5" s="224"/>
-      <c r="CQ5" s="224"/>
-      <c r="CR5" s="225"/>
-      <c r="CS5" s="212" t="s">
+      <c r="BF5" s="250"/>
+      <c r="BG5" s="250"/>
+      <c r="BH5" s="250"/>
+      <c r="BI5" s="250"/>
+      <c r="BJ5" s="250"/>
+      <c r="BK5" s="250"/>
+      <c r="BL5" s="250"/>
+      <c r="BM5" s="250"/>
+      <c r="BN5" s="250"/>
+      <c r="BO5" s="250"/>
+      <c r="BP5" s="250"/>
+      <c r="BQ5" s="250"/>
+      <c r="BR5" s="250"/>
+      <c r="BS5" s="250"/>
+      <c r="BT5" s="250"/>
+      <c r="BU5" s="250"/>
+      <c r="BV5" s="250"/>
+      <c r="BW5" s="250"/>
+      <c r="BX5" s="250"/>
+      <c r="BY5" s="250"/>
+      <c r="BZ5" s="250"/>
+      <c r="CA5" s="250"/>
+      <c r="CB5" s="250"/>
+      <c r="CC5" s="250"/>
+      <c r="CD5" s="250"/>
+      <c r="CE5" s="250"/>
+      <c r="CF5" s="250"/>
+      <c r="CG5" s="250"/>
+      <c r="CH5" s="250"/>
+      <c r="CI5" s="250"/>
+      <c r="CJ5" s="250"/>
+      <c r="CK5" s="250"/>
+      <c r="CL5" s="250"/>
+      <c r="CM5" s="250"/>
+      <c r="CN5" s="250"/>
+      <c r="CO5" s="250"/>
+      <c r="CP5" s="250"/>
+      <c r="CQ5" s="250"/>
+      <c r="CR5" s="251"/>
+      <c r="CS5" s="238" t="s">
         <v>32</v>
       </c>
-      <c r="CT5" s="213"/>
-      <c r="CU5" s="214"/>
+      <c r="CT5" s="239"/>
+      <c r="CU5" s="240"/>
     </row>
     <row r="6" spans="1:99" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="217"/>
-      <c r="B6" s="219"/>
-      <c r="C6" s="219"/>
-      <c r="D6" s="194" t="s">
+      <c r="A6" s="243"/>
+      <c r="B6" s="245"/>
+      <c r="C6" s="245"/>
+      <c r="D6" s="220" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="195"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="195"/>
-      <c r="H6" s="195"/>
-      <c r="I6" s="195"/>
-      <c r="J6" s="197" t="s">
+      <c r="E6" s="221"/>
+      <c r="F6" s="221"/>
+      <c r="G6" s="221"/>
+      <c r="H6" s="221"/>
+      <c r="I6" s="221"/>
+      <c r="J6" s="223" t="s">
+        <v>126</v>
+      </c>
+      <c r="K6" s="223"/>
+      <c r="L6" s="223"/>
+      <c r="M6" s="223"/>
+      <c r="N6" s="223"/>
+      <c r="O6" s="223"/>
+      <c r="P6" s="223"/>
+      <c r="Q6" s="223"/>
+      <c r="R6" s="223"/>
+      <c r="S6" s="223"/>
+      <c r="T6" s="223"/>
+      <c r="U6" s="223"/>
+      <c r="V6" s="223"/>
+      <c r="W6" s="223"/>
+      <c r="X6" s="223"/>
+      <c r="Y6" s="223"/>
+      <c r="Z6" s="223"/>
+      <c r="AA6" s="223"/>
+      <c r="AB6" s="223"/>
+      <c r="AC6" s="223"/>
+      <c r="AD6" s="223"/>
+      <c r="AE6" s="223"/>
+      <c r="AF6" s="223"/>
+      <c r="AG6" s="223"/>
+      <c r="AH6" s="223"/>
+      <c r="AI6" s="223"/>
+      <c r="AJ6" s="223"/>
+      <c r="AK6" s="223"/>
+      <c r="AL6" s="223"/>
+      <c r="AM6" s="223"/>
+      <c r="AN6" s="223"/>
+      <c r="AO6" s="223" t="s">
         <v>127</v>
       </c>
-      <c r="K6" s="197"/>
-      <c r="L6" s="197"/>
-      <c r="M6" s="197"/>
-      <c r="N6" s="197"/>
-      <c r="O6" s="197"/>
-      <c r="P6" s="197"/>
-      <c r="Q6" s="197"/>
-      <c r="R6" s="197"/>
-      <c r="S6" s="197"/>
-      <c r="T6" s="197"/>
-      <c r="U6" s="197"/>
-      <c r="V6" s="197"/>
-      <c r="W6" s="197"/>
-      <c r="X6" s="197"/>
-      <c r="Y6" s="197"/>
-      <c r="Z6" s="197"/>
-      <c r="AA6" s="197"/>
-      <c r="AB6" s="197"/>
-      <c r="AC6" s="197"/>
-      <c r="AD6" s="197"/>
-      <c r="AE6" s="197"/>
-      <c r="AF6" s="197"/>
-      <c r="AG6" s="197"/>
-      <c r="AH6" s="197"/>
-      <c r="AI6" s="197"/>
-      <c r="AJ6" s="197"/>
-      <c r="AK6" s="197"/>
-      <c r="AL6" s="197"/>
-      <c r="AM6" s="197"/>
-      <c r="AN6" s="197"/>
-      <c r="AO6" s="197" t="s">
-        <v>128</v>
-      </c>
-      <c r="AP6" s="197"/>
-      <c r="AQ6" s="197"/>
-      <c r="AR6" s="197"/>
-      <c r="AS6" s="197" t="s">
+      <c r="AP6" s="223"/>
+      <c r="AQ6" s="223"/>
+      <c r="AR6" s="223"/>
+      <c r="AS6" s="223" t="s">
         <v>34</v>
       </c>
-      <c r="AT6" s="197"/>
-      <c r="AU6" s="197"/>
-      <c r="AV6" s="197" t="s">
+      <c r="AT6" s="223"/>
+      <c r="AU6" s="223"/>
+      <c r="AV6" s="223" t="s">
         <v>35</v>
       </c>
-      <c r="AW6" s="197"/>
-      <c r="AX6" s="197"/>
-      <c r="AY6" s="197"/>
-      <c r="AZ6" s="197"/>
-      <c r="BA6" s="197"/>
-      <c r="BB6" s="197"/>
-      <c r="BC6" s="205" t="s">
+      <c r="AW6" s="223"/>
+      <c r="AX6" s="223"/>
+      <c r="AY6" s="223"/>
+      <c r="AZ6" s="223"/>
+      <c r="BA6" s="223"/>
+      <c r="BB6" s="223"/>
+      <c r="BC6" s="231" t="s">
         <v>36</v>
       </c>
-      <c r="BD6" s="206"/>
-      <c r="BE6" s="207" t="s">
+      <c r="BD6" s="232"/>
+      <c r="BE6" s="233" t="s">
+        <v>136</v>
+      </c>
+      <c r="BF6" s="234"/>
+      <c r="BG6" s="234"/>
+      <c r="BH6" s="234"/>
+      <c r="BI6" s="234"/>
+      <c r="BJ6" s="234"/>
+      <c r="BK6" s="235"/>
+      <c r="BL6" s="236" t="s">
         <v>137</v>
       </c>
-      <c r="BF6" s="208"/>
-      <c r="BG6" s="208"/>
-      <c r="BH6" s="208"/>
-      <c r="BI6" s="208"/>
-      <c r="BJ6" s="208"/>
-      <c r="BK6" s="209"/>
-      <c r="BL6" s="210" t="s">
-        <v>138</v>
-      </c>
-      <c r="BM6" s="208"/>
-      <c r="BN6" s="208"/>
-      <c r="BO6" s="208"/>
-      <c r="BP6" s="208"/>
-      <c r="BQ6" s="208"/>
-      <c r="BR6" s="208"/>
-      <c r="BS6" s="208"/>
-      <c r="BT6" s="208"/>
-      <c r="BU6" s="208"/>
-      <c r="BV6" s="208"/>
-      <c r="BW6" s="208"/>
-      <c r="BX6" s="208"/>
-      <c r="BY6" s="208"/>
-      <c r="BZ6" s="208"/>
-      <c r="CA6" s="208"/>
-      <c r="CB6" s="208"/>
-      <c r="CC6" s="208"/>
-      <c r="CD6" s="208"/>
-      <c r="CE6" s="208"/>
-      <c r="CF6" s="208"/>
-      <c r="CG6" s="208"/>
-      <c r="CH6" s="208"/>
-      <c r="CI6" s="208"/>
-      <c r="CJ6" s="208"/>
-      <c r="CK6" s="208"/>
-      <c r="CL6" s="208"/>
-      <c r="CM6" s="208"/>
-      <c r="CN6" s="208"/>
-      <c r="CO6" s="208"/>
-      <c r="CP6" s="208"/>
-      <c r="CQ6" s="215" t="s">
+      <c r="BM6" s="234"/>
+      <c r="BN6" s="234"/>
+      <c r="BO6" s="234"/>
+      <c r="BP6" s="234"/>
+      <c r="BQ6" s="234"/>
+      <c r="BR6" s="234"/>
+      <c r="BS6" s="234"/>
+      <c r="BT6" s="234"/>
+      <c r="BU6" s="234"/>
+      <c r="BV6" s="234"/>
+      <c r="BW6" s="234"/>
+      <c r="BX6" s="234"/>
+      <c r="BY6" s="234"/>
+      <c r="BZ6" s="234"/>
+      <c r="CA6" s="234"/>
+      <c r="CB6" s="234"/>
+      <c r="CC6" s="234"/>
+      <c r="CD6" s="234"/>
+      <c r="CE6" s="234"/>
+      <c r="CF6" s="234"/>
+      <c r="CG6" s="234"/>
+      <c r="CH6" s="234"/>
+      <c r="CI6" s="234"/>
+      <c r="CJ6" s="234"/>
+      <c r="CK6" s="234"/>
+      <c r="CL6" s="234"/>
+      <c r="CM6" s="234"/>
+      <c r="CN6" s="234"/>
+      <c r="CO6" s="234"/>
+      <c r="CP6" s="234"/>
+      <c r="CQ6" s="241" t="s">
         <v>37</v>
       </c>
-      <c r="CR6" s="215"/>
-      <c r="CS6" s="211" t="s">
+      <c r="CR6" s="241"/>
+      <c r="CS6" s="237" t="s">
         <v>38</v>
       </c>
-      <c r="CT6" s="211" t="s">
+      <c r="CT6" s="237" t="s">
         <v>39</v>
       </c>
-      <c r="CU6" s="201" t="s">
+      <c r="CU6" s="227" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A7" s="217"/>
-      <c r="B7" s="219"/>
-      <c r="C7" s="219"/>
+      <c r="A7" s="243"/>
+      <c r="B7" s="245"/>
+      <c r="C7" s="245"/>
       <c r="E7" s="93"/>
       <c r="F7" s="99">
         <v>0.3</v>
@@ -7356,323 +7393,323 @@
       <c r="I7" s="99">
         <v>0.3</v>
       </c>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="196"/>
-      <c r="N7" s="196"/>
-      <c r="O7" s="196"/>
-      <c r="P7" s="196"/>
-      <c r="Q7" s="196"/>
-      <c r="R7" s="196"/>
-      <c r="S7" s="196"/>
-      <c r="T7" s="204"/>
-      <c r="U7" s="204"/>
-      <c r="V7" s="196"/>
-      <c r="W7" s="196"/>
-      <c r="X7" s="196"/>
-      <c r="Y7" s="196"/>
-      <c r="Z7" s="196"/>
-      <c r="AA7" s="196"/>
-      <c r="AB7" s="196"/>
-      <c r="AC7" s="196"/>
-      <c r="AD7" s="196"/>
-      <c r="AE7" s="196"/>
-      <c r="AF7" s="196"/>
-      <c r="AG7" s="196"/>
-      <c r="AH7" s="196"/>
-      <c r="AI7" s="196"/>
-      <c r="AJ7" s="196"/>
-      <c r="AK7" s="196"/>
-      <c r="AL7" s="200">
+      <c r="J7" s="222"/>
+      <c r="K7" s="222"/>
+      <c r="L7" s="222"/>
+      <c r="M7" s="222"/>
+      <c r="N7" s="222"/>
+      <c r="O7" s="222"/>
+      <c r="P7" s="222"/>
+      <c r="Q7" s="222"/>
+      <c r="R7" s="222"/>
+      <c r="S7" s="222"/>
+      <c r="T7" s="230"/>
+      <c r="U7" s="230"/>
+      <c r="V7" s="222"/>
+      <c r="W7" s="222"/>
+      <c r="X7" s="222"/>
+      <c r="Y7" s="222"/>
+      <c r="Z7" s="222"/>
+      <c r="AA7" s="222"/>
+      <c r="AB7" s="222"/>
+      <c r="AC7" s="222"/>
+      <c r="AD7" s="222"/>
+      <c r="AE7" s="222"/>
+      <c r="AF7" s="222"/>
+      <c r="AG7" s="222"/>
+      <c r="AH7" s="222"/>
+      <c r="AI7" s="222"/>
+      <c r="AJ7" s="222"/>
+      <c r="AK7" s="222"/>
+      <c r="AL7" s="226">
         <f>COUNT(AJ9,AH9,AF9,AD9,Z9,V9,T9,P9,N9,L9,J9,X9)</f>
         <v>3</v>
       </c>
-      <c r="AM7" s="200"/>
+      <c r="AM7" s="226"/>
       <c r="AN7" s="100">
         <v>0.2</v>
       </c>
-      <c r="AO7" s="196" t="s">
-        <v>292</v>
-      </c>
-      <c r="AP7" s="196"/>
-      <c r="AQ7" s="196"/>
-      <c r="AR7" s="196"/>
-      <c r="AS7" s="200">
+      <c r="AO7" s="222" t="s">
+        <v>291</v>
+      </c>
+      <c r="AP7" s="222"/>
+      <c r="AQ7" s="222"/>
+      <c r="AR7" s="222"/>
+      <c r="AS7" s="226">
         <f>COUNT(AO9,AQ9,AS9)</f>
         <v>1</v>
       </c>
-      <c r="AT7" s="200"/>
+      <c r="AT7" s="226"/>
       <c r="AU7" s="92">
         <v>0.1</v>
       </c>
-      <c r="AV7" s="196" t="s">
-        <v>293</v>
-      </c>
-      <c r="AW7" s="196"/>
-      <c r="AX7" s="196"/>
-      <c r="AY7" s="196"/>
-      <c r="AZ7" s="200">
+      <c r="AV7" s="222" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW7" s="222"/>
+      <c r="AX7" s="222"/>
+      <c r="AY7" s="222"/>
+      <c r="AZ7" s="226">
         <f>COUNT(AV9,AX9,AZ9)</f>
         <v>1</v>
       </c>
-      <c r="BA7" s="200"/>
+      <c r="BA7" s="226"/>
       <c r="BB7" s="17">
         <v>0.1</v>
       </c>
-      <c r="BC7" s="205"/>
-      <c r="BD7" s="206"/>
-      <c r="BE7" s="196"/>
-      <c r="BF7" s="196"/>
-      <c r="BG7" s="227" t="s">
-        <v>294</v>
-      </c>
-      <c r="BH7" s="228"/>
-      <c r="BI7" s="200">
+      <c r="BC7" s="231"/>
+      <c r="BD7" s="232"/>
+      <c r="BE7" s="222"/>
+      <c r="BF7" s="222"/>
+      <c r="BG7" s="253" t="s">
+        <v>293</v>
+      </c>
+      <c r="BH7" s="254"/>
+      <c r="BI7" s="226">
         <f>COUNT(BE9,BG9,BI9)</f>
         <v>1</v>
       </c>
-      <c r="BJ7" s="200"/>
+      <c r="BJ7" s="226"/>
       <c r="BK7" s="101">
         <v>0.5</v>
       </c>
-      <c r="BL7" s="196"/>
-      <c r="BM7" s="196"/>
-      <c r="BN7" s="196"/>
-      <c r="BO7" s="196"/>
-      <c r="BP7" s="196"/>
-      <c r="BQ7" s="196"/>
-      <c r="BR7" s="196"/>
-      <c r="BS7" s="196"/>
-      <c r="BT7" s="196"/>
-      <c r="BU7" s="196"/>
-      <c r="BV7" s="196"/>
-      <c r="BW7" s="196"/>
-      <c r="BX7" s="196"/>
-      <c r="BY7" s="196"/>
-      <c r="BZ7" s="196"/>
-      <c r="CA7" s="196"/>
-      <c r="CB7" s="196"/>
-      <c r="CC7" s="196"/>
-      <c r="CD7" s="196"/>
-      <c r="CE7" s="196"/>
-      <c r="CF7" s="196"/>
-      <c r="CG7" s="196"/>
-      <c r="CH7" s="196"/>
-      <c r="CI7" s="196"/>
-      <c r="CJ7" s="196"/>
-      <c r="CK7" s="196"/>
-      <c r="CL7" s="196"/>
-      <c r="CM7" s="196"/>
-      <c r="CN7" s="200">
+      <c r="BL7" s="222"/>
+      <c r="BM7" s="222"/>
+      <c r="BN7" s="222"/>
+      <c r="BO7" s="222"/>
+      <c r="BP7" s="222"/>
+      <c r="BQ7" s="222"/>
+      <c r="BR7" s="222"/>
+      <c r="BS7" s="222"/>
+      <c r="BT7" s="222"/>
+      <c r="BU7" s="222"/>
+      <c r="BV7" s="222"/>
+      <c r="BW7" s="222"/>
+      <c r="BX7" s="222"/>
+      <c r="BY7" s="222"/>
+      <c r="BZ7" s="222"/>
+      <c r="CA7" s="222"/>
+      <c r="CB7" s="222"/>
+      <c r="CC7" s="222"/>
+      <c r="CD7" s="222"/>
+      <c r="CE7" s="222"/>
+      <c r="CF7" s="222"/>
+      <c r="CG7" s="222"/>
+      <c r="CH7" s="222"/>
+      <c r="CI7" s="222"/>
+      <c r="CJ7" s="222"/>
+      <c r="CK7" s="222"/>
+      <c r="CL7" s="222"/>
+      <c r="CM7" s="222"/>
+      <c r="CN7" s="226">
         <f>COUNT(CL9,CJ9,CH9,CF9,CD9,CB9,BZ9,BX9,BV9,BT9,BR9,BP9,BN9,BL9)</f>
         <v>8</v>
       </c>
-      <c r="CO7" s="200"/>
+      <c r="CO7" s="226"/>
       <c r="CP7" s="102">
         <v>0.5</v>
       </c>
-      <c r="CQ7" s="215"/>
-      <c r="CR7" s="215"/>
-      <c r="CS7" s="211"/>
-      <c r="CT7" s="211"/>
-      <c r="CU7" s="202"/>
+      <c r="CQ7" s="241"/>
+      <c r="CR7" s="241"/>
+      <c r="CS7" s="237"/>
+      <c r="CT7" s="237"/>
+      <c r="CU7" s="228"/>
     </row>
     <row r="8" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A8" s="217"/>
-      <c r="B8" s="219"/>
-      <c r="C8" s="219"/>
-      <c r="D8" s="226" t="s">
+      <c r="A8" s="243"/>
+      <c r="B8" s="245"/>
+      <c r="C8" s="245"/>
+      <c r="D8" s="252" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="252"/>
+      <c r="F8" s="252"/>
+      <c r="G8" s="252" t="s">
         <v>131</v>
       </c>
-      <c r="E8" s="226"/>
-      <c r="F8" s="226"/>
-      <c r="G8" s="226" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="226"/>
-      <c r="I8" s="226"/>
-      <c r="J8" s="188" t="s">
+      <c r="H8" s="252"/>
+      <c r="I8" s="252"/>
+      <c r="J8" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="188"/>
-      <c r="L8" s="188" t="s">
+      <c r="K8" s="214"/>
+      <c r="L8" s="214" t="s">
         <v>44</v>
       </c>
-      <c r="M8" s="188"/>
-      <c r="N8" s="188" t="s">
+      <c r="M8" s="214"/>
+      <c r="N8" s="214" t="s">
         <v>45</v>
       </c>
-      <c r="O8" s="188"/>
-      <c r="P8" s="188" t="s">
+      <c r="O8" s="214"/>
+      <c r="P8" s="214" t="s">
         <v>46</v>
       </c>
-      <c r="Q8" s="188"/>
-      <c r="R8" s="188" t="s">
+      <c r="Q8" s="214"/>
+      <c r="R8" s="214" t="s">
         <v>47</v>
       </c>
-      <c r="S8" s="188"/>
-      <c r="T8" s="188" t="s">
+      <c r="S8" s="214"/>
+      <c r="T8" s="214" t="s">
         <v>48</v>
       </c>
-      <c r="U8" s="188"/>
-      <c r="V8" s="188" t="s">
+      <c r="U8" s="214"/>
+      <c r="V8" s="214" t="s">
         <v>49</v>
       </c>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188" t="s">
+      <c r="W8" s="214"/>
+      <c r="X8" s="214" t="s">
         <v>50</v>
       </c>
-      <c r="Y8" s="188"/>
-      <c r="Z8" s="188" t="s">
+      <c r="Y8" s="214"/>
+      <c r="Z8" s="214" t="s">
         <v>51</v>
       </c>
-      <c r="AA8" s="188"/>
-      <c r="AB8" s="188" t="s">
+      <c r="AA8" s="214"/>
+      <c r="AB8" s="214" t="s">
         <v>52</v>
       </c>
-      <c r="AC8" s="188"/>
-      <c r="AD8" s="188" t="s">
+      <c r="AC8" s="214"/>
+      <c r="AD8" s="214" t="s">
         <v>53</v>
       </c>
-      <c r="AE8" s="188"/>
-      <c r="AF8" s="188" t="s">
+      <c r="AE8" s="214"/>
+      <c r="AF8" s="214" t="s">
         <v>54</v>
       </c>
-      <c r="AG8" s="188"/>
-      <c r="AH8" s="188" t="s">
+      <c r="AG8" s="214"/>
+      <c r="AH8" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="AI8" s="188"/>
-      <c r="AJ8" s="188" t="s">
+      <c r="AI8" s="214"/>
+      <c r="AJ8" s="214" t="s">
         <v>56</v>
       </c>
-      <c r="AK8" s="188"/>
-      <c r="AL8" s="188" t="s">
+      <c r="AK8" s="214"/>
+      <c r="AL8" s="214" t="s">
         <v>57</v>
       </c>
-      <c r="AM8" s="188"/>
+      <c r="AM8" s="214"/>
       <c r="AN8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="AO8" s="188" t="s">
+      <c r="AO8" s="214" t="s">
         <v>59</v>
       </c>
-      <c r="AP8" s="188"/>
-      <c r="AQ8" s="188" t="s">
+      <c r="AP8" s="214"/>
+      <c r="AQ8" s="214" t="s">
         <v>60</v>
       </c>
-      <c r="AR8" s="188"/>
-      <c r="AS8" s="188" t="s">
+      <c r="AR8" s="214"/>
+      <c r="AS8" s="214" t="s">
         <v>61</v>
       </c>
-      <c r="AT8" s="188"/>
+      <c r="AT8" s="214"/>
       <c r="AU8" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="AV8" s="188" t="s">
+      <c r="AV8" s="214" t="s">
         <v>63</v>
       </c>
-      <c r="AW8" s="188"/>
-      <c r="AX8" s="188" t="s">
+      <c r="AW8" s="214"/>
+      <c r="AX8" s="214" t="s">
         <v>64</v>
       </c>
-      <c r="AY8" s="188"/>
-      <c r="AZ8" s="188" t="s">
+      <c r="AY8" s="214"/>
+      <c r="AZ8" s="214" t="s">
         <v>65</v>
       </c>
-      <c r="BA8" s="188"/>
+      <c r="BA8" s="214"/>
       <c r="BB8" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="BC8" s="205"/>
-      <c r="BD8" s="206"/>
-      <c r="BE8" s="198" t="s">
+      <c r="BC8" s="231"/>
+      <c r="BD8" s="232"/>
+      <c r="BE8" s="224" t="s">
         <v>41</v>
       </c>
-      <c r="BF8" s="199"/>
-      <c r="BG8" s="192" t="s">
+      <c r="BF8" s="225"/>
+      <c r="BG8" s="218" t="s">
+        <v>165</v>
+      </c>
+      <c r="BH8" s="219"/>
+      <c r="BI8" s="218" t="s">
         <v>166</v>
       </c>
-      <c r="BH8" s="193"/>
-      <c r="BI8" s="192" t="s">
-        <v>167</v>
-      </c>
-      <c r="BJ8" s="193"/>
+      <c r="BJ8" s="219"/>
       <c r="BK8" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="BL8" s="192" t="s">
+      <c r="BL8" s="218" t="s">
         <v>67</v>
       </c>
-      <c r="BM8" s="193"/>
-      <c r="BN8" s="192" t="s">
-        <v>168</v>
-      </c>
-      <c r="BO8" s="193"/>
-      <c r="BP8" s="192" t="s">
+      <c r="BM8" s="219"/>
+      <c r="BN8" s="218" t="s">
+        <v>167</v>
+      </c>
+      <c r="BO8" s="219"/>
+      <c r="BP8" s="218" t="s">
         <v>68</v>
       </c>
-      <c r="BQ8" s="193"/>
-      <c r="BR8" s="192" t="s">
+      <c r="BQ8" s="219"/>
+      <c r="BR8" s="218" t="s">
         <v>69</v>
       </c>
-      <c r="BS8" s="193"/>
-      <c r="BT8" s="192" t="s">
+      <c r="BS8" s="219"/>
+      <c r="BT8" s="218" t="s">
         <v>70</v>
       </c>
-      <c r="BU8" s="193"/>
-      <c r="BV8" s="190" t="s">
+      <c r="BU8" s="219"/>
+      <c r="BV8" s="216" t="s">
         <v>71</v>
       </c>
-      <c r="BW8" s="191"/>
-      <c r="BX8" s="190" t="s">
+      <c r="BW8" s="217"/>
+      <c r="BX8" s="216" t="s">
         <v>72</v>
       </c>
-      <c r="BY8" s="191"/>
-      <c r="BZ8" s="190" t="s">
+      <c r="BY8" s="217"/>
+      <c r="BZ8" s="216" t="s">
         <v>73</v>
       </c>
-      <c r="CA8" s="191"/>
-      <c r="CB8" s="190" t="s">
+      <c r="CA8" s="217"/>
+      <c r="CB8" s="216" t="s">
         <v>74</v>
       </c>
-      <c r="CC8" s="191"/>
-      <c r="CD8" s="190" t="s">
+      <c r="CC8" s="217"/>
+      <c r="CD8" s="216" t="s">
         <v>75</v>
       </c>
-      <c r="CE8" s="191"/>
-      <c r="CF8" s="190" t="s">
+      <c r="CE8" s="217"/>
+      <c r="CF8" s="216" t="s">
         <v>76</v>
       </c>
-      <c r="CG8" s="191"/>
-      <c r="CH8" s="190" t="s">
+      <c r="CG8" s="217"/>
+      <c r="CH8" s="216" t="s">
         <v>77</v>
       </c>
-      <c r="CI8" s="191"/>
-      <c r="CJ8" s="190" t="s">
+      <c r="CI8" s="217"/>
+      <c r="CJ8" s="216" t="s">
         <v>78</v>
       </c>
-      <c r="CK8" s="191"/>
-      <c r="CL8" s="190" t="s">
+      <c r="CK8" s="217"/>
+      <c r="CL8" s="216" t="s">
         <v>79</v>
       </c>
-      <c r="CM8" s="191"/>
-      <c r="CN8" s="190"/>
-      <c r="CO8" s="191"/>
+      <c r="CM8" s="217"/>
+      <c r="CN8" s="216"/>
+      <c r="CO8" s="217"/>
       <c r="CP8" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="CQ8" s="215"/>
-      <c r="CR8" s="215"/>
-      <c r="CS8" s="211"/>
-      <c r="CT8" s="211"/>
-      <c r="CU8" s="202"/>
+      <c r="CQ8" s="241"/>
+      <c r="CR8" s="241"/>
+      <c r="CS8" s="237"/>
+      <c r="CT8" s="237"/>
+      <c r="CU8" s="228"/>
     </row>
     <row r="9" spans="1:99" ht="15.75" thickBot="1">
-      <c r="A9" s="218"/>
-      <c r="B9" s="219"/>
-      <c r="C9" s="219"/>
+      <c r="A9" s="244"/>
+      <c r="B9" s="245"/>
+      <c r="C9" s="245"/>
       <c r="D9" s="22">
         <v>75</v>
       </c>
@@ -7856,9 +7893,9 @@
       <c r="CR9" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="CS9" s="211"/>
-      <c r="CT9" s="211"/>
-      <c r="CU9" s="203"/>
+      <c r="CS9" s="237"/>
+      <c r="CT9" s="237"/>
+      <c r="CU9" s="229"/>
     </row>
     <row r="10" spans="1:99" hidden="1">
       <c r="A10" s="37">
@@ -23917,8 +23954,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:P62"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A2" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:P62"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23928,43 +23965,43 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="229" t="str">
+      <c r="A2" s="255" t="str">
         <f>UPPER(CONCATENATE("GRADING SHEET A.Y."," ",REGISTRATION!Q12))</f>
         <v>GRADING SHEET A.Y. 2017-2018</v>
       </c>
-      <c r="B2" s="229"/>
-      <c r="C2" s="229"/>
-      <c r="D2" s="229"/>
-      <c r="E2" s="229"/>
-      <c r="F2" s="229"/>
-      <c r="G2" s="229"/>
-      <c r="H2" s="229"/>
-      <c r="I2" s="229"/>
-      <c r="J2" s="229"/>
-      <c r="K2" s="229"/>
-      <c r="L2" s="229"/>
-      <c r="M2" s="229"/>
-      <c r="N2" s="229"/>
-      <c r="O2" s="229"/>
-      <c r="P2" s="229"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
+      <c r="G2" s="255"/>
+      <c r="H2" s="255"/>
+      <c r="I2" s="255"/>
+      <c r="J2" s="255"/>
+      <c r="K2" s="255"/>
+      <c r="L2" s="255"/>
+      <c r="M2" s="255"/>
+      <c r="N2" s="255"/>
+      <c r="O2" s="255"/>
+      <c r="P2" s="255"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="A3" s="229"/>
-      <c r="B3" s="229"/>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="229"/>
-      <c r="H3" s="229"/>
-      <c r="I3" s="229"/>
-      <c r="J3" s="229"/>
-      <c r="K3" s="229"/>
-      <c r="L3" s="229"/>
-      <c r="M3" s="229"/>
-      <c r="N3" s="229"/>
-      <c r="O3" s="229"/>
-      <c r="P3" s="229"/>
+      <c r="A3" s="255"/>
+      <c r="B3" s="255"/>
+      <c r="C3" s="255"/>
+      <c r="D3" s="255"/>
+      <c r="E3" s="255"/>
+      <c r="F3" s="255"/>
+      <c r="G3" s="255"/>
+      <c r="H3" s="255"/>
+      <c r="I3" s="255"/>
+      <c r="J3" s="255"/>
+      <c r="K3" s="255"/>
+      <c r="L3" s="255"/>
+      <c r="M3" s="255"/>
+      <c r="N3" s="255"/>
+      <c r="O3" s="255"/>
+      <c r="P3" s="255"/>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" t="str">
@@ -23998,7 +24035,7 @@
     </row>
     <row r="7" spans="1:16">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C7" s="107" t="str">
         <f>'SEMESTRAL GRADE'!C16:E16</f>
@@ -24027,45 +24064,45 @@
     </row>
     <row r="9" spans="1:16" ht="15.75" thickBot="1"/>
     <row r="10" spans="1:16" ht="15" customHeight="1">
-      <c r="A10" s="241" t="s">
+      <c r="A10" s="267" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="230" t="s">
+      <c r="C10" s="256" t="s">
         <v>86</v>
       </c>
-      <c r="D10" s="230"/>
-      <c r="E10" s="230"/>
-      <c r="F10" s="230"/>
-      <c r="G10" s="230"/>
-      <c r="H10" s="230"/>
-      <c r="I10" s="230"/>
-      <c r="J10" s="230" t="s">
+      <c r="D10" s="256"/>
+      <c r="E10" s="256"/>
+      <c r="F10" s="256"/>
+      <c r="G10" s="256"/>
+      <c r="H10" s="256"/>
+      <c r="I10" s="256"/>
+      <c r="J10" s="256" t="s">
         <v>87</v>
       </c>
-      <c r="K10" s="230"/>
-      <c r="L10" s="230"/>
-      <c r="M10" s="230"/>
-      <c r="N10" s="231" t="s">
+      <c r="K10" s="256"/>
+      <c r="L10" s="256"/>
+      <c r="M10" s="256"/>
+      <c r="N10" s="257" t="s">
         <v>32</v>
       </c>
-      <c r="O10" s="232"/>
-      <c r="P10" s="235" t="s">
+      <c r="O10" s="258"/>
+      <c r="P10" s="261" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="242"/>
-      <c r="B11" s="238" t="s">
+      <c r="A11" s="268"/>
+      <c r="B11" s="264" t="s">
         <v>89</v>
       </c>
       <c r="C11" s="39" t="s">
         <v>93</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E11" s="39" t="s">
         <v>20</v>
@@ -24076,27 +24113,27 @@
       <c r="G11" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="240" t="s">
+      <c r="H11" s="266" t="s">
         <v>90</v>
       </c>
-      <c r="I11" s="240"/>
+      <c r="I11" s="266"/>
       <c r="J11" s="39" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K11" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="L11" s="240" t="s">
+      <c r="L11" s="266" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="240"/>
-      <c r="N11" s="233"/>
-      <c r="O11" s="234"/>
-      <c r="P11" s="236"/>
+      <c r="M11" s="266"/>
+      <c r="N11" s="259"/>
+      <c r="O11" s="260"/>
+      <c r="P11" s="262"/>
     </row>
     <row r="12" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A12" s="243"/>
-      <c r="B12" s="239"/>
+      <c r="A12" s="269"/>
+      <c r="B12" s="265"/>
       <c r="C12" s="41">
         <f>'RAW GRADES'!F7</f>
         <v>0.3</v>
@@ -24143,7 +24180,7 @@
       <c r="O12" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="P12" s="237"/>
+      <c r="P12" s="263"/>
     </row>
     <row r="13" spans="1:16" hidden="1">
       <c r="A13" s="44">
@@ -24601,131 +24638,131 @@
       </c>
     </row>
     <row r="20" spans="1:16" hidden="1">
-      <c r="A20" s="321">
+      <c r="A20" s="139">
         <v>8</v>
       </c>
-      <c r="B20" s="322" t="str">
+      <c r="B20" s="140" t="str">
         <f>'RAW GRADES'!C17</f>
         <v>CARLOS PATRICK C</v>
       </c>
-      <c r="C20" s="323">
+      <c r="C20" s="141">
         <f>'RAW GRADES'!F17</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="D20" s="324">
+      <c r="D20" s="142">
         <f>'RAW GRADES'!I17</f>
         <v>0</v>
       </c>
-      <c r="E20" s="325">
+      <c r="E20" s="143">
         <f>'RAW GRADES'!AN17</f>
         <v>16.666666666666668</v>
       </c>
-      <c r="F20" s="325">
+      <c r="F20" s="143">
         <f>'RAW GRADES'!AU17</f>
         <v>10</v>
       </c>
-      <c r="G20" s="325">
+      <c r="G20" s="143">
         <f>'RAW GRADES'!BB17</f>
         <v>9.5</v>
       </c>
-      <c r="H20" s="326">
+      <c r="H20" s="144">
         <f>'RAW GRADES'!BC17</f>
         <v>52.56666666666667</v>
       </c>
-      <c r="I20" s="326">
+      <c r="I20" s="144">
         <f>'RAW GRADES'!BD17</f>
         <v>52.57</v>
       </c>
-      <c r="J20" s="325">
+      <c r="J20" s="143">
         <f>'RAW GRADES'!BK17</f>
         <v>0</v>
       </c>
-      <c r="K20" s="325">
+      <c r="K20" s="143">
         <f>'RAW GRADES'!CP17</f>
         <v>46.25</v>
       </c>
-      <c r="L20" s="325">
+      <c r="L20" s="143">
         <f>'RAW GRADES'!CQ17</f>
         <v>46.25</v>
       </c>
-      <c r="M20" s="327">
+      <c r="M20" s="145">
         <f>'RAW GRADES'!CR17</f>
         <v>46.25</v>
       </c>
-      <c r="N20" s="328">
+      <c r="N20" s="146">
         <f>'RAW GRADES'!CS17</f>
         <v>48.778000000000006</v>
       </c>
-      <c r="O20" s="329">
+      <c r="O20" s="147">
         <f>'RAW GRADES'!CT17</f>
         <v>5</v>
       </c>
-      <c r="P20" s="330" t="str">
+      <c r="P20" s="148" t="str">
         <f t="shared" si="0"/>
         <v>FAILED</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="15.75" thickBot="1">
-      <c r="A21" s="335">
+      <c r="A21" s="153">
         <v>1</v>
       </c>
-      <c r="B21" s="336" t="str">
+      <c r="B21" s="154" t="str">
         <f>'RAW GRADES'!C18</f>
         <v>CARPENA IAN REYMAR M</v>
       </c>
-      <c r="C21" s="337">
+      <c r="C21" s="155">
         <f>'RAW GRADES'!F18</f>
         <v>16.399999999999999</v>
       </c>
-      <c r="D21" s="338">
+      <c r="D21" s="156">
         <f>'RAW GRADES'!I18</f>
         <v>7.5</v>
       </c>
-      <c r="E21" s="339">
+      <c r="E21" s="157">
         <f>'RAW GRADES'!AN18</f>
         <v>13.666666666666666</v>
       </c>
-      <c r="F21" s="339">
+      <c r="F21" s="157">
         <f>'RAW GRADES'!AU18</f>
         <v>5.8</v>
       </c>
-      <c r="G21" s="339">
+      <c r="G21" s="157">
         <f>'RAW GRADES'!BB18</f>
         <v>9.5</v>
       </c>
-      <c r="H21" s="340">
+      <c r="H21" s="158">
         <f>'RAW GRADES'!BC18</f>
         <v>52.866666666666667</v>
       </c>
-      <c r="I21" s="340">
+      <c r="I21" s="158">
         <f>'RAW GRADES'!BD18</f>
         <v>52.87</v>
       </c>
-      <c r="J21" s="339">
+      <c r="J21" s="157">
         <f>'RAW GRADES'!BK18</f>
         <v>44</v>
       </c>
-      <c r="K21" s="339">
+      <c r="K21" s="157">
         <f>'RAW GRADES'!CP18</f>
         <v>25</v>
       </c>
-      <c r="L21" s="339">
+      <c r="L21" s="157">
         <f>'RAW GRADES'!CQ18</f>
         <v>69</v>
       </c>
-      <c r="M21" s="341">
+      <c r="M21" s="159">
         <f>'RAW GRADES'!CR18</f>
         <v>69</v>
       </c>
-      <c r="N21" s="342">
+      <c r="N21" s="160">
         <f>'RAW GRADES'!CS18</f>
         <v>62.548000000000002</v>
       </c>
-      <c r="O21" s="343">
+      <c r="O21" s="161">
         <f>'RAW GRADES'!CT18</f>
         <v>5</v>
       </c>
-      <c r="P21" s="344" t="str">
+      <c r="P21" s="162" t="str">
         <f t="shared" si="0"/>
         <v>FAILED</v>
       </c>
@@ -24738,7 +24775,7 @@
         <f>'RAW GRADES'!C19</f>
         <v>DAVID ELLAYSA C</v>
       </c>
-      <c r="C22" s="331">
+      <c r="C22" s="149">
         <f>'RAW GRADES'!F19</f>
         <v>26</v>
       </c>
@@ -24782,15 +24819,15 @@
         <f>'RAW GRADES'!CR19</f>
         <v>43.75</v>
       </c>
-      <c r="N22" s="332">
+      <c r="N22" s="150">
         <f>'RAW GRADES'!CS19</f>
         <v>50.762</v>
       </c>
-      <c r="O22" s="333">
+      <c r="O22" s="151">
         <f>'RAW GRADES'!CT19</f>
         <v>5</v>
       </c>
-      <c r="P22" s="334" t="str">
+      <c r="P22" s="152" t="str">
         <f t="shared" si="0"/>
         <v>FAILED</v>
       </c>
@@ -27007,10 +27044,10 @@
     </row>
     <row r="59" spans="1:16">
       <c r="B59" t="s">
+        <v>171</v>
+      </c>
+      <c r="K59" t="s">
         <v>172</v>
-      </c>
-      <c r="K59" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -27033,10 +27070,10 @@
     </row>
     <row r="62" spans="1:16">
       <c r="B62" s="83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K62" s="83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -27069,8 +27106,8 @@
   </sheetPr>
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A18" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:F30"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A12" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27098,106 +27135,106 @@
       <c r="F2" s="55"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="248"/>
-      <c r="B3" s="248"/>
-      <c r="C3" s="248"/>
-      <c r="D3" s="248"/>
-      <c r="E3" s="248"/>
-      <c r="F3" s="248"/>
+      <c r="A3" s="274"/>
+      <c r="B3" s="274"/>
+      <c r="C3" s="274"/>
+      <c r="D3" s="274"/>
+      <c r="E3" s="274"/>
+      <c r="F3" s="274"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="262" t="s">
+      <c r="A4" s="288" t="s">
         <v>95</v>
       </c>
-      <c r="B4" s="262"/>
-      <c r="C4" s="262"/>
-      <c r="D4" s="262"/>
-      <c r="E4" s="262"/>
-      <c r="F4" s="262"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
     </row>
     <row r="5" spans="1:6" ht="18">
-      <c r="A5" s="263" t="s">
+      <c r="A5" s="289" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="263"/>
-      <c r="C5" s="263"/>
-      <c r="D5" s="263"/>
-      <c r="E5" s="263"/>
-      <c r="F5" s="263"/>
+      <c r="B5" s="289"/>
+      <c r="C5" s="289"/>
+      <c r="D5" s="289"/>
+      <c r="E5" s="289"/>
+      <c r="F5" s="289"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="262" t="s">
+      <c r="A6" s="288" t="s">
         <v>97</v>
       </c>
-      <c r="B6" s="262"/>
-      <c r="C6" s="262"/>
-      <c r="D6" s="262"/>
-      <c r="E6" s="262"/>
-      <c r="F6" s="262"/>
+      <c r="B6" s="288"/>
+      <c r="C6" s="288"/>
+      <c r="D6" s="288"/>
+      <c r="E6" s="288"/>
+      <c r="F6" s="288"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="290" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="264"/>
-      <c r="C7" s="264"/>
-      <c r="D7" s="264"/>
-      <c r="E7" s="264"/>
-      <c r="F7" s="264"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
+      <c r="F7" s="290"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="265"/>
-      <c r="B8" s="265"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="A8" s="291"/>
+      <c r="B8" s="291"/>
+      <c r="C8" s="291"/>
+      <c r="D8" s="291"/>
+      <c r="E8" s="291"/>
+      <c r="F8" s="291"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="248"/>
-      <c r="B9" s="248"/>
-      <c r="C9" s="248"/>
-      <c r="D9" s="248"/>
-      <c r="E9" s="248"/>
-      <c r="F9" s="248"/>
+      <c r="A9" s="274"/>
+      <c r="B9" s="274"/>
+      <c r="C9" s="274"/>
+      <c r="D9" s="274"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="274"/>
     </row>
     <row r="10" spans="1:6" ht="18">
-      <c r="A10" s="266"/>
-      <c r="B10" s="266"/>
-      <c r="C10" s="266"/>
-      <c r="D10" s="266"/>
-      <c r="E10" s="266"/>
-      <c r="F10" s="266"/>
+      <c r="A10" s="292"/>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
     </row>
     <row r="11" spans="1:6" ht="22.5">
-      <c r="A11" s="267" t="s">
+      <c r="A11" s="293" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="267"/>
-      <c r="C11" s="267"/>
-      <c r="D11" s="267"/>
-      <c r="E11" s="267"/>
-      <c r="F11" s="267"/>
+      <c r="B11" s="293"/>
+      <c r="C11" s="293"/>
+      <c r="D11" s="293"/>
+      <c r="E11" s="293"/>
+      <c r="F11" s="293"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="265"/>
-      <c r="B12" s="265"/>
-      <c r="C12" s="265"/>
-      <c r="D12" s="265"/>
-      <c r="E12" s="265"/>
-      <c r="F12" s="265"/>
+      <c r="A12" s="291"/>
+      <c r="B12" s="291"/>
+      <c r="C12" s="291"/>
+      <c r="D12" s="291"/>
+      <c r="E12" s="291"/>
+      <c r="F12" s="291"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="55"/>
       <c r="B13" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="268" t="str">
+      <c r="C13" s="294" t="str">
         <f>UPPER(REGISTRATION!C7)</f>
         <v>DCIT 65</v>
       </c>
-      <c r="D13" s="268"/>
-      <c r="E13" s="268"/>
+      <c r="D13" s="294"/>
+      <c r="E13" s="294"/>
       <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:6">
@@ -27205,12 +27242,12 @@
       <c r="B14" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="261" t="str">
+      <c r="C14" s="287" t="str">
         <f>UPPER(REGISTRATION!C6)</f>
         <v>WEB DEVELOPMENT</v>
       </c>
-      <c r="D14" s="261"/>
-      <c r="E14" s="261"/>
+      <c r="D14" s="287"/>
+      <c r="E14" s="287"/>
       <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:6" ht="15.75">
@@ -27218,12 +27255,12 @@
       <c r="B15" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="C15" s="252" t="str">
+      <c r="C15" s="278" t="str">
         <f>UPPER(REGISTRATION!D8)</f>
         <v>3</v>
       </c>
-      <c r="D15" s="252"/>
-      <c r="E15" s="252"/>
+      <c r="D15" s="278"/>
+      <c r="E15" s="278"/>
       <c r="F15" s="58"/>
     </row>
     <row r="16" spans="1:6">
@@ -27231,12 +27268,12 @@
       <c r="B16" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="253" t="str">
+      <c r="C16" s="279" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ",REGISTRATION!E8))</f>
         <v>BSIT B</v>
       </c>
-      <c r="D16" s="253"/>
-      <c r="E16" s="253"/>
+      <c r="D16" s="279"/>
+      <c r="E16" s="279"/>
       <c r="F16" s="58"/>
     </row>
     <row r="17" spans="1:6">
@@ -27244,12 +27281,12 @@
       <c r="B17" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="C17" s="253" t="str">
+      <c r="C17" s="279" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13," ","SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECOND SEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="D17" s="253"/>
-      <c r="E17" s="253"/>
+      <c r="D17" s="279"/>
+      <c r="E17" s="279"/>
       <c r="F17" s="58"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
@@ -27261,46 +27298,46 @@
       <c r="F18" s="55"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="244" t="s">
+      <c r="A19" s="270" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="256" t="s">
+      <c r="B19" s="282" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="244" t="s">
+      <c r="C19" s="270" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="244" t="s">
+      <c r="D19" s="270" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="258" t="s">
+      <c r="E19" s="284" t="s">
         <v>105</v>
       </c>
-      <c r="F19" s="244" t="s">
+      <c r="F19" s="270" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="254"/>
-      <c r="B20" s="257"/>
-      <c r="C20" s="254"/>
-      <c r="D20" s="254"/>
-      <c r="E20" s="259"/>
-      <c r="F20" s="245"/>
+      <c r="A20" s="280"/>
+      <c r="B20" s="283"/>
+      <c r="C20" s="280"/>
+      <c r="D20" s="280"/>
+      <c r="E20" s="285"/>
+      <c r="F20" s="271"/>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A21" s="255"/>
+      <c r="A21" s="281"/>
       <c r="B21" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="C21" s="255"/>
-      <c r="D21" s="255"/>
-      <c r="E21" s="260"/>
-      <c r="F21" s="246"/>
+      <c r="C21" s="281"/>
+      <c r="D21" s="281"/>
+      <c r="E21" s="286"/>
+      <c r="F21" s="272"/>
     </row>
     <row r="22" spans="1:6" ht="18.75" thickBot="1">
       <c r="A22" s="60">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B22" s="61" t="str">
         <f>'DEPT CHAIR'!B21</f>
@@ -27324,14 +27361,14 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A23" s="249" t="s">
+      <c r="A23" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="B23" s="250"/>
-      <c r="C23" s="250"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="251"/>
+      <c r="B23" s="276"/>
+      <c r="C23" s="276"/>
+      <c r="D23" s="276"/>
+      <c r="E23" s="276"/>
+      <c r="F23" s="277"/>
     </row>
     <row r="24" spans="1:6" ht="15.75">
       <c r="A24" s="57"/>
@@ -27364,11 +27401,11 @@
       </c>
       <c r="C27" s="55"/>
       <c r="D27" s="55"/>
-      <c r="E27" s="247">
+      <c r="E27" s="273">
         <f ca="1">NOW()</f>
-        <v>43237.732090509257</v>
-      </c>
-      <c r="F27" s="247"/>
+        <v>43250.938039236113</v>
+      </c>
+      <c r="F27" s="273"/>
     </row>
     <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="55"/>
@@ -27378,10 +27415,10 @@
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
-      <c r="E28" s="248" t="s">
+      <c r="E28" s="274" t="s">
         <v>109</v>
       </c>
-      <c r="F28" s="248"/>
+      <c r="F28" s="274"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="55"/>
@@ -27398,8 +27435,8 @@
       <c r="B30" s="68"/>
       <c r="C30" s="68"/>
       <c r="D30" s="68"/>
-      <c r="E30" s="248"/>
-      <c r="F30" s="248"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="274"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="55"/>
@@ -27565,10 +27602,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="B4:H30"/>
+  <dimension ref="A4:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27580,14 +27617,14 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="285" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="285"/>
-      <c r="D4" s="285"/>
-      <c r="E4" s="285"/>
-      <c r="F4" s="285"/>
-      <c r="G4" s="285"/>
+      <c r="B4" s="295" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
+      <c r="E4" s="295"/>
+      <c r="F4" s="295"/>
+      <c r="G4" s="295"/>
     </row>
     <row r="5" spans="2:7" ht="15.75" thickBot="1">
       <c r="B5" s="55"/>
@@ -27598,130 +27635,130 @@
       <c r="G5" s="55"/>
     </row>
     <row r="6" spans="2:7" ht="16.5" thickBot="1">
-      <c r="B6" s="286" t="s">
+      <c r="B6" s="313" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="300"/>
+      <c r="D6" s="299" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="270"/>
-      <c r="D6" s="269" t="s">
+      <c r="E6" s="300"/>
+      <c r="F6" s="299" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="270"/>
-      <c r="F6" s="269" t="s">
-        <v>126</v>
-      </c>
-      <c r="G6" s="270"/>
+      <c r="G6" s="300"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="287" t="s">
+      <c r="B7" s="314" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="288"/>
-      <c r="D7" s="289">
+      <c r="C7" s="315"/>
+      <c r="D7" s="316">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=1.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=1.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=1.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=1.75"))</f>
         <v>0</v>
       </c>
-      <c r="E7" s="290"/>
-      <c r="F7" s="291">
+      <c r="E7" s="317"/>
+      <c r="F7" s="318">
         <f t="shared" ref="F7:F12" si="0">(D7/$D$13)*100</f>
         <v>0</v>
       </c>
-      <c r="G7" s="292"/>
+      <c r="G7" s="319"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="281" t="s">
+      <c r="B8" s="309" t="s">
         <v>112</v>
       </c>
-      <c r="C8" s="282"/>
-      <c r="D8" s="275">
+      <c r="C8" s="310"/>
+      <c r="D8" s="305">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=2.0")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=2.25")+(COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=2.50")+COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=2.75"))</f>
         <v>0</v>
       </c>
-      <c r="E8" s="276"/>
-      <c r="F8" s="277">
+      <c r="E8" s="306"/>
+      <c r="F8" s="297">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G8" s="278"/>
+      <c r="G8" s="298"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="281" t="s">
+      <c r="B9" s="309" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="282"/>
-      <c r="D9" s="275">
+      <c r="C9" s="310"/>
+      <c r="D9" s="305">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=3.0")</f>
         <v>0</v>
       </c>
-      <c r="E9" s="276"/>
-      <c r="F9" s="277">
+      <c r="E9" s="306"/>
+      <c r="F9" s="297">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G9" s="278"/>
+      <c r="G9" s="298"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="281" t="s">
+      <c r="B10" s="309" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="282"/>
-      <c r="D10" s="275">
+      <c r="C10" s="310"/>
+      <c r="D10" s="305">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=5.0")</f>
         <v>1</v>
       </c>
-      <c r="E10" s="276"/>
-      <c r="F10" s="277">
+      <c r="E10" s="306"/>
+      <c r="F10" s="297">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G10" s="278"/>
+      <c r="G10" s="298"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="281" t="s">
+      <c r="B11" s="309" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="282"/>
-      <c r="D11" s="279">
+      <c r="C11" s="310"/>
+      <c r="D11" s="307">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=INC")</f>
         <v>0</v>
       </c>
-      <c r="E11" s="280"/>
-      <c r="F11" s="277">
+      <c r="E11" s="308"/>
+      <c r="F11" s="297">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="278"/>
+      <c r="G11" s="298"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="281" t="s">
+      <c r="B12" s="309" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="282"/>
-      <c r="D12" s="279">
+      <c r="C12" s="310"/>
+      <c r="D12" s="307">
         <f>COUNTIF('SEMESTRAL GRADE'!$D$22:$D$22,"=drp")</f>
         <v>0</v>
       </c>
-      <c r="E12" s="280"/>
-      <c r="F12" s="277">
+      <c r="E12" s="308"/>
+      <c r="F12" s="297">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="278"/>
+      <c r="G12" s="298"/>
     </row>
     <row r="13" spans="2:7" ht="15.75" customHeight="1" thickBot="1">
-      <c r="B13" s="283" t="s">
+      <c r="B13" s="311" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="284"/>
-      <c r="D13" s="271">
+      <c r="C13" s="312"/>
+      <c r="D13" s="301">
         <f>SUM(D7:E12)</f>
         <v>1</v>
       </c>
-      <c r="E13" s="272"/>
-      <c r="F13" s="273">
+      <c r="E13" s="302"/>
+      <c r="F13" s="303">
         <f>SUM(F7:G12)</f>
         <v>100</v>
       </c>
-      <c r="G13" s="274"/>
+      <c r="G13" s="304"/>
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="55"/>
@@ -27747,19 +27784,19 @@
       <c r="F16" s="55"/>
       <c r="G16" s="55"/>
     </row>
-    <row r="17" spans="2:8" ht="15.75">
-      <c r="B17" s="55"/>
-      <c r="C17" s="71" t="s">
+    <row r="17" spans="1:8" ht="15.75">
+      <c r="A17" s="295" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="71" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="55"/>
-    </row>
-    <row r="18" spans="2:8">
+      <c r="B17" s="295"/>
+      <c r="C17" s="295"/>
+      <c r="D17" s="295"/>
+      <c r="E17" s="295"/>
+      <c r="F17" s="295"/>
+      <c r="G17" s="295"/>
+      <c r="H17" s="295"/>
+    </row>
+    <row r="18" spans="1:8">
       <c r="B18" s="55"/>
       <c r="C18" s="55"/>
       <c r="D18" s="55"/>
@@ -27767,64 +27804,61 @@
       <c r="F18" s="55"/>
       <c r="G18" s="55"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="1:8">
       <c r="B19" s="55"/>
-      <c r="C19" s="68" t="s">
-        <v>120</v>
+      <c r="C19" s="137" t="s">
+        <v>119</v>
       </c>
       <c r="D19" s="55"/>
       <c r="E19" s="55"/>
-      <c r="F19" s="68" t="s">
-        <v>120</v>
+      <c r="F19" s="137" t="s">
+        <v>119</v>
       </c>
       <c r="G19" s="55"/>
     </row>
-    <row r="20" spans="2:8" ht="15.75">
+    <row r="20" spans="1:8" ht="15.75">
       <c r="B20" s="55"/>
-      <c r="C20" s="67" t="str">
-        <f>UPPER(REGISTRATION!Q16)</f>
-        <v>RENEN PAUL M. VIADO</v>
+      <c r="C20" s="138" t="s">
+        <v>189</v>
       </c>
       <c r="D20" s="55"/>
       <c r="E20" s="55"/>
-      <c r="F20" s="67" t="str">
-        <f>UPPER(REGISTRATION!Q15)</f>
-        <v>BRYLLE D. SAMSON</v>
+      <c r="F20" s="138" t="s">
+        <v>190</v>
       </c>
       <c r="G20" s="55"/>
     </row>
-    <row r="21" spans="2:8" ht="15" customHeight="1">
+    <row r="21" spans="1:8" ht="15" customHeight="1">
       <c r="B21" s="55"/>
-      <c r="C21" s="68" t="s">
+      <c r="C21" s="137" t="s">
+        <v>300</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="137" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="345" t="str">
-        <f>CONCATENATE("Chairperson,"," ",UPPER(REGISTRATION!Q18))</f>
-        <v>Chairperson, DEPARTMENT OF INFORMATION TECHNOLOGY</v>
-      </c>
-      <c r="F21" s="345"/>
-      <c r="G21" s="345"/>
-      <c r="H21" s="345"/>
-    </row>
-    <row r="22" spans="2:8">
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:8">
       <c r="B22" s="55"/>
-      <c r="C22" s="55"/>
       <c r="D22" s="55"/>
-      <c r="E22" s="345"/>
-      <c r="F22" s="345"/>
-      <c r="G22" s="345"/>
-      <c r="H22" s="345"/>
-    </row>
-    <row r="23" spans="2:8">
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75">
       <c r="B23" s="55"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
       <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
+      <c r="F23" s="138" t="str">
+        <f>UPPER([2]REGISTRATION!S20)</f>
+        <v/>
+      </c>
       <c r="G23" s="55"/>
     </row>
-    <row r="24" spans="2:8">
+    <row r="24" spans="1:8">
       <c r="B24" s="55"/>
       <c r="C24" s="55"/>
       <c r="D24" s="55"/>
@@ -27832,7 +27866,7 @@
       <c r="F24" s="55"/>
       <c r="G24" s="55"/>
     </row>
-    <row r="25" spans="2:8">
+    <row r="25" spans="1:8">
       <c r="B25" s="55"/>
       <c r="C25" s="55"/>
       <c r="D25" s="55"/>
@@ -27840,17 +27874,19 @@
       <c r="F25" s="55"/>
       <c r="G25" s="55"/>
     </row>
-    <row r="26" spans="2:8" ht="15.75">
-      <c r="B26" s="55"/>
-      <c r="C26" s="71" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75">
+    <row r="26" spans="1:8" ht="15.75">
+      <c r="A26" s="296" t="s">
+        <v>120</v>
+      </c>
+      <c r="B26" s="296"/>
+      <c r="C26" s="296"/>
+      <c r="D26" s="296"/>
+      <c r="E26" s="296"/>
+      <c r="F26" s="296"/>
+      <c r="G26" s="296"/>
+      <c r="H26" s="296"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75">
       <c r="B27" s="55"/>
       <c r="C27" s="71"/>
       <c r="D27" s="55"/>
@@ -27858,40 +27894,44 @@
       <c r="F27" s="55"/>
       <c r="G27" s="55"/>
     </row>
-    <row r="28" spans="2:8">
-      <c r="B28" s="55"/>
-      <c r="C28" s="68" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75">
-      <c r="B29" s="55"/>
-      <c r="C29" s="67" t="str">
-        <f>UPPER(REGISTRATION!Q17)</f>
-        <v>AMMIE P. FERRER, PH.D.</v>
-      </c>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" spans="2:8">
-      <c r="B30" s="55"/>
-      <c r="C30" s="68" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
+    <row r="28" spans="1:8">
+      <c r="A28" s="274" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="274"/>
+      <c r="C28" s="274"/>
+      <c r="D28" s="274"/>
+      <c r="E28" s="274"/>
+      <c r="F28" s="274"/>
+      <c r="G28" s="274"/>
+      <c r="H28" s="274"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75">
+      <c r="A29" s="295" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29" s="295"/>
+      <c r="C29" s="295"/>
+      <c r="D29" s="295"/>
+      <c r="E29" s="295"/>
+      <c r="F29" s="295"/>
+      <c r="G29" s="295"/>
+      <c r="H29" s="295"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="274" t="s">
+        <v>121</v>
+      </c>
+      <c r="B30" s="274"/>
+      <c r="C30" s="274"/>
+      <c r="D30" s="274"/>
+      <c r="E30" s="274"/>
+      <c r="F30" s="274"/>
+      <c r="G30" s="274"/>
+      <c r="H30" s="274"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="E21:H22"/>
+  <mergeCells count="30">
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
@@ -27917,6 +27957,11 @@
     <mergeCell ref="F11:G11"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A28:H28"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A30:H30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="84" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -28017,123 +28062,123 @@
       <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A7" s="293" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="294"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="294"/>
-      <c r="E7" s="294"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="294"/>
-      <c r="I7" s="294"/>
-      <c r="J7" s="295"/>
+      <c r="A7" s="320" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="321"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="322"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="296" t="str">
+      <c r="A8" s="323" t="str">
         <f>UPPER(REGISTRATION!Q18)</f>
         <v>DEPARTMENT OF INFORMATION TECHNOLOGY</v>
       </c>
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="297" t="str">
+      <c r="B8" s="324"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="324" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13,"SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECONDSEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="H8" s="297"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="298"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="324"/>
+      <c r="J8" s="325"/>
     </row>
     <row r="9" spans="1:10" ht="20.25">
-      <c r="A9" s="299" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301" t="str">
+      <c r="A9" s="326" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="327"/>
+      <c r="C9" s="328" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C7," - ",REGISTRATION!C6))</f>
         <v>DCIT 65 - WEB DEVELOPMENT</v>
       </c>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="300" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="300"/>
-      <c r="I9" s="302" t="str">
+      <c r="D9" s="328"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="328"/>
+      <c r="G9" s="327" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="327"/>
+      <c r="I9" s="329" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ", REGISTRATION!D8, REGISTRATION!E8))</f>
         <v>BSIT 3B</v>
       </c>
-      <c r="J9" s="303"/>
+      <c r="J9" s="330"/>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1">
-      <c r="A10" s="304" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="305"/>
-      <c r="C10" s="306" t="str">
+      <c r="A10" s="331" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="332"/>
+      <c r="C10" s="333" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D10" s="306"/>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="305" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="305"/>
-      <c r="I10" s="307" t="str">
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="332" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="332"/>
+      <c r="I10" s="334" t="str">
         <f>CONCATENATE(REGISTRATION!J6," ", REGISTRATION!J7," ",REGISTRATION!J8)</f>
         <v>Monday 2PM - 4PM 353</v>
       </c>
-      <c r="J10" s="308"/>
+      <c r="J10" s="335"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A11" s="318" t="s">
+      <c r="A11" s="345" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="318"/>
-      <c r="C11" s="318"/>
-      <c r="D11" s="318"/>
-      <c r="E11" s="318"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="318"/>
-      <c r="I11" s="318"/>
-      <c r="J11" s="318"/>
+      <c r="B11" s="345"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="345"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="345"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="345"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="309"/>
-      <c r="B12" s="311" t="s">
+      <c r="A12" s="336"/>
+      <c r="B12" s="338" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="338" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="311" t="s">
+      <c r="D12" s="338" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="340" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="342" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="311" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="313" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="315" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="316"/>
-      <c r="H12" s="316"/>
-      <c r="I12" s="316"/>
-      <c r="J12" s="317"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="343"/>
+      <c r="I12" s="343"/>
+      <c r="J12" s="344"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="310"/>
-      <c r="B13" s="312"/>
-      <c r="C13" s="312"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="314"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="339"/>
+      <c r="C13" s="339"/>
+      <c r="D13" s="339"/>
+      <c r="E13" s="341"/>
       <c r="F13" s="136">
         <v>43222</v>
       </c>
@@ -28141,10 +28186,10 @@
         <v>43436</v>
       </c>
       <c r="H13" s="114" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I13" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J13" s="136">
         <v>43223</v>
@@ -29437,123 +29482,123 @@
       <c r="J6" s="113"/>
     </row>
     <row r="7" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A7" s="293" t="s">
-        <v>183</v>
-      </c>
-      <c r="B7" s="294"/>
-      <c r="C7" s="294"/>
-      <c r="D7" s="294"/>
-      <c r="E7" s="294"/>
-      <c r="F7" s="294"/>
-      <c r="G7" s="294"/>
-      <c r="H7" s="294"/>
-      <c r="I7" s="294"/>
-      <c r="J7" s="295"/>
+      <c r="A7" s="320" t="s">
+        <v>182</v>
+      </c>
+      <c r="B7" s="321"/>
+      <c r="C7" s="321"/>
+      <c r="D7" s="321"/>
+      <c r="E7" s="321"/>
+      <c r="F7" s="321"/>
+      <c r="G7" s="321"/>
+      <c r="H7" s="321"/>
+      <c r="I7" s="321"/>
+      <c r="J7" s="322"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="296" t="str">
+      <c r="A8" s="323" t="str">
         <f>UPPER(REGISTRATION!Q18)</f>
         <v>DEPARTMENT OF INFORMATION TECHNOLOGY</v>
       </c>
-      <c r="B8" s="297"/>
-      <c r="C8" s="297"/>
-      <c r="D8" s="297"/>
-      <c r="E8" s="297"/>
-      <c r="F8" s="298"/>
-      <c r="G8" s="297" t="str">
+      <c r="B8" s="324"/>
+      <c r="C8" s="324"/>
+      <c r="D8" s="324"/>
+      <c r="E8" s="324"/>
+      <c r="F8" s="325"/>
+      <c r="G8" s="324" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!Q13,"SEMESTER"," ","A.Y."," ",REGISTRATION!Q12))</f>
         <v>SECONDSEMESTER A.Y. 2017-2018</v>
       </c>
-      <c r="H8" s="297"/>
-      <c r="I8" s="297"/>
-      <c r="J8" s="298"/>
+      <c r="H8" s="324"/>
+      <c r="I8" s="324"/>
+      <c r="J8" s="325"/>
     </row>
     <row r="9" spans="1:10" ht="20.25">
-      <c r="A9" s="299" t="s">
-        <v>176</v>
-      </c>
-      <c r="B9" s="300"/>
-      <c r="C9" s="301" t="str">
+      <c r="A9" s="326" t="s">
+        <v>175</v>
+      </c>
+      <c r="B9" s="327"/>
+      <c r="C9" s="328" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C7," - ",REGISTRATION!C6))</f>
         <v>DCIT 65 - WEB DEVELOPMENT</v>
       </c>
-      <c r="D9" s="301"/>
-      <c r="E9" s="301"/>
-      <c r="F9" s="301"/>
-      <c r="G9" s="300" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="300"/>
-      <c r="I9" s="302" t="str">
+      <c r="D9" s="328"/>
+      <c r="E9" s="328"/>
+      <c r="F9" s="328"/>
+      <c r="G9" s="327" t="s">
+        <v>176</v>
+      </c>
+      <c r="H9" s="327"/>
+      <c r="I9" s="329" t="str">
         <f>UPPER(CONCATENATE(REGISTRATION!C8," ", REGISTRATION!D8, REGISTRATION!E8))</f>
         <v>BSIT 3B</v>
       </c>
-      <c r="J9" s="303"/>
+      <c r="J9" s="330"/>
     </row>
     <row r="10" spans="1:10" ht="21" thickBot="1">
-      <c r="A10" s="304" t="s">
-        <v>178</v>
-      </c>
-      <c r="B10" s="305"/>
-      <c r="C10" s="306" t="str">
+      <c r="A10" s="331" t="s">
+        <v>177</v>
+      </c>
+      <c r="B10" s="332"/>
+      <c r="C10" s="333" t="str">
         <f>UPPER(REGISTRATION!Q14)</f>
         <v>GIMEL C. CONTILLO</v>
       </c>
-      <c r="D10" s="306"/>
-      <c r="E10" s="306"/>
-      <c r="F10" s="306"/>
-      <c r="G10" s="305" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="305"/>
-      <c r="I10" s="319" t="str">
+      <c r="D10" s="333"/>
+      <c r="E10" s="333"/>
+      <c r="F10" s="333"/>
+      <c r="G10" s="332" t="s">
+        <v>178</v>
+      </c>
+      <c r="H10" s="332"/>
+      <c r="I10" s="346" t="str">
         <f>CONCATENATE(REGISTRATION!M6, " ", REGISTRATION!M7, " ", REGISTRATION!M8)</f>
         <v>Monday 4PM - 7PM CL 1</v>
       </c>
-      <c r="J10" s="320"/>
+      <c r="J10" s="347"/>
     </row>
     <row r="11" spans="1:10" ht="18.75" thickBot="1">
-      <c r="A11" s="318" t="s">
+      <c r="A11" s="345" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="318"/>
-      <c r="C11" s="318"/>
-      <c r="D11" s="318"/>
-      <c r="E11" s="318"/>
-      <c r="F11" s="318"/>
-      <c r="G11" s="318"/>
-      <c r="H11" s="318"/>
-      <c r="I11" s="318"/>
-      <c r="J11" s="318"/>
+      <c r="B11" s="345"/>
+      <c r="C11" s="345"/>
+      <c r="D11" s="345"/>
+      <c r="E11" s="345"/>
+      <c r="F11" s="345"/>
+      <c r="G11" s="345"/>
+      <c r="H11" s="345"/>
+      <c r="I11" s="345"/>
+      <c r="J11" s="345"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A12" s="309"/>
-      <c r="B12" s="311" t="s">
+      <c r="A12" s="336"/>
+      <c r="B12" s="338" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="338" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="311" t="s">
+      <c r="D12" s="338" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="340" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="342" t="s">
         <v>181</v>
       </c>
-      <c r="D12" s="311" t="s">
-        <v>84</v>
-      </c>
-      <c r="E12" s="313" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="315" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="316"/>
-      <c r="H12" s="316"/>
-      <c r="I12" s="316"/>
-      <c r="J12" s="317"/>
+      <c r="G12" s="343"/>
+      <c r="H12" s="343"/>
+      <c r="I12" s="343"/>
+      <c r="J12" s="344"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A13" s="310"/>
-      <c r="B13" s="312"/>
-      <c r="C13" s="312"/>
-      <c r="D13" s="312"/>
-      <c r="E13" s="314"/>
+      <c r="A13" s="337"/>
+      <c r="B13" s="339"/>
+      <c r="C13" s="339"/>
+      <c r="D13" s="339"/>
+      <c r="E13" s="341"/>
       <c r="F13" s="114"/>
       <c r="G13" s="114"/>
       <c r="H13" s="114"/>
@@ -30772,52 +30817,52 @@
   <sheetData>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="36" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="36" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="36" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G10" t="s">
         <v>24</v>
@@ -30825,76 +30870,76 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
